--- a/Inventário de Ativos Intangíveis/2025/2. Levantamento_Identificacao_Avaliacao/2.2 Softwares Dev. Internamente/2.1. Medições em APF/28.SINOVA/APF-SINOVA-v1.0.xlsx
+++ b/Inventário de Ativos Intangíveis/2025/2. Levantamento_Identificacao_Avaliacao/2.2 Softwares Dev. Internamente/2.1. Medições em APF/28.SINOVA/APF-SINOVA-v1.0.xlsx
@@ -424,7 +424,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="346">
   <si>
     <t>Identificação da Contagem</t>
   </si>
@@ -1383,6 +1383,115 @@
   </si>
   <si>
     <t>Cadastrar Avaliadores - Alterar Usuários</t>
+  </si>
+  <si>
+    <t>HU_05 - Distribuir inscrições para os avaliadores;
+HU_18 - Distribuir inscrições para os avaliadores Relato Executivo</t>
+  </si>
+  <si>
+    <t>HU_13 - Enviar Práticas Pública para 2ª Etapa</t>
+  </si>
+  <si>
+    <t>Enviar para 2º Etapa em Lote</t>
+  </si>
+  <si>
+    <t>Envio pela comissão organizadora.</t>
+  </si>
+  <si>
+    <t>HU_14 - Disponibilização da nota ao candidato Resumo Executivo</t>
+  </si>
+  <si>
+    <t>Visualizar Nota Recebida</t>
+  </si>
+  <si>
+    <t>HU_15 - Realizar/Submeter Relato Executivo (Segunda Etapa)</t>
+  </si>
+  <si>
+    <t>Responder/Enviar Perguntas do Relato</t>
+  </si>
+  <si>
+    <t>HU_16 - Alterar Relato Executivo (Segunda Etapa)</t>
+  </si>
+  <si>
+    <t>Alterar Relato Executivo - Enviar</t>
+  </si>
+  <si>
+    <t>HU_17 - Visualizar Relato Executivo (Segunda Etapa)</t>
+  </si>
+  <si>
+    <t>Visualizar Respostas do Relato Executivo</t>
+  </si>
+  <si>
+    <t>HU_18 - Distribuir inscrições para os avaliadores Relato Executivo</t>
+  </si>
+  <si>
+    <t>Listar Práticas da Categoria</t>
+  </si>
+  <si>
+    <t>Visualizar Dados dos Candidatos</t>
+  </si>
+  <si>
+    <t>HU_19 - Avaliar Relato Executivo da PPI ( Segunda Etapa)</t>
+  </si>
+  <si>
+    <t>Consultar Relato da Prática Pública</t>
+  </si>
+  <si>
+    <t>Avaliar Prática Pública - Enviar Avaliação em Lote</t>
+  </si>
+  <si>
+    <t>Enviar Prática Pública em Lote pela Comissão Julgadora Central</t>
+  </si>
+  <si>
+    <t>Exportar Dados do Grid - PDF/XLS</t>
+  </si>
+  <si>
+    <t>Visualizar Informações da Equipe (consulta implícita)</t>
+  </si>
+  <si>
+    <t>Legenda/Detalhes das Notas da Prática Pública</t>
+  </si>
+  <si>
+    <t>Calcular Nota Final</t>
+  </si>
+  <si>
+    <t>HU_20 - Enviar Práticas Pública para 3ª Etapa</t>
+  </si>
+  <si>
+    <t>Listar Avaliadores</t>
+  </si>
+  <si>
+    <t>HU_21 - Avaliar Entrevista (Terceira Etapa)</t>
+  </si>
+  <si>
+    <t>Consultar Detalhes da Prática Pública</t>
+  </si>
+  <si>
+    <t>Avaliar - Registrar Avaliação da Prática Pública</t>
+  </si>
+  <si>
+    <t>Alterar o Resultado da Entrevista</t>
+  </si>
+  <si>
+    <t>Enviar Praticas pela Comissão Organizadora</t>
+  </si>
+  <si>
+    <t>Consultar Registros do Usuário Logado</t>
+  </si>
+  <si>
+    <t>HU_22 - Visualizar Práticas Pública da Entrevista</t>
+  </si>
+  <si>
+    <t>Visualizar Práticas Públicas da 3º Etapa</t>
+  </si>
+  <si>
+    <t>HU_25 - [ALT] Inserir Avaliação das Práticas Pública na 4ª Etapa</t>
+  </si>
+  <si>
+    <t>Informar Posição da Prática - Salvar</t>
+  </si>
+  <si>
+    <t>Listar Avaliação - Posições</t>
   </si>
 </sst>
 </file>
@@ -2472,41 +2581,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2524,6 +2598,41 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2553,13 +2662,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2574,13 +2692,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2592,14 +2710,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2610,9 +2722,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2620,651 +2729,7 @@
     <cellStyle name="TableStyleLight1" xfId="2"/>
     <cellStyle name="Vírgula" xfId="3" builtinId="3"/>
   </cellStyles>
-  <dxfs count="285">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="22"/>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="26"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="22"/>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="26"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="22"/>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="26"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="22"/>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="26"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="22"/>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="26"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="22"/>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="26"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="22"/>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="26"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="22"/>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="26"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="22"/>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="26"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="22"/>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="26"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="22"/>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="26"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="22"/>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="26"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="22"/>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="26"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="22"/>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="53"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="26"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="243">
     <dxf>
       <font>
         <b val="0"/>
@@ -7469,19 +6934,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.25751072961373389</c:v>
+                  <c:v>0.23608768971332209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12875536480686695</c:v>
+                  <c:v>0.19392917369308602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47210300429184548</c:v>
+                  <c:v>0.45868465430016864</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12017167381974249</c:v>
+                  <c:v>9.4435075885328831E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1459227467811159E-2</c:v>
+                  <c:v>1.6863406408094434E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8610,153 +8075,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
     </row>
     <row r="2" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="138"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
     </row>
     <row r="3" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="138"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
+      <c r="A3" s="147"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="147"/>
+      <c r="R3" s="147"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="147"/>
+      <c r="U3" s="147"/>
+      <c r="V3" s="147"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="135" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="143" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="139" t="s">
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="137">
+      <c r="P4" s="148"/>
+      <c r="Q4" s="146">
         <f>Funções!L4</f>
-        <v>466</v>
-      </c>
-      <c r="R4" s="137"/>
-      <c r="S4" s="137"/>
-      <c r="T4" s="137"/>
-      <c r="U4" s="137"/>
-      <c r="V4" s="137"/>
+        <v>593</v>
+      </c>
+      <c r="R4" s="146"/>
+      <c r="S4" s="146"/>
+      <c r="T4" s="146"/>
+      <c r="U4" s="146"/>
+      <c r="V4" s="146"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135" t="s">
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="143" t="s">
         <v>250</v>
       </c>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="136" t="s">
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="137">
+      <c r="P5" s="144"/>
+      <c r="Q5" s="146">
         <f>Funções!L5</f>
-        <v>466</v>
-      </c>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
+        <v>593</v>
+      </c>
+      <c r="R5" s="146"/>
+      <c r="S5" s="146"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
       <c r="F6" s="140" t="s">
         <v>3</v>
       </c>
@@ -8768,92 +8233,92 @@
       <c r="L6" s="140"/>
       <c r="M6" s="140"/>
       <c r="N6" s="140"/>
-      <c r="O6" s="136" t="s">
+      <c r="O6" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="136"/>
-      <c r="Q6" s="137">
+      <c r="P6" s="144"/>
+      <c r="Q6" s="146">
         <f>Funções!L6</f>
-        <v>466</v>
-      </c>
-      <c r="R6" s="137"/>
-      <c r="S6" s="137"/>
-      <c r="T6" s="137"/>
-      <c r="U6" s="137"/>
-      <c r="V6" s="137"/>
+        <v>593</v>
+      </c>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="146"/>
     </row>
     <row r="7" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="135" t="s">
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="143" t="s">
         <v>174</v>
       </c>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="136" t="s">
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="136"/>
-      <c r="R7" s="141" t="s">
+      <c r="P7" s="144"/>
+      <c r="Q7" s="144"/>
+      <c r="R7" s="145" t="s">
         <v>172</v>
       </c>
-      <c r="S7" s="141"/>
-      <c r="T7" s="141"/>
-      <c r="U7" s="141"/>
-      <c r="V7" s="141"/>
+      <c r="S7" s="145"/>
+      <c r="T7" s="145"/>
+      <c r="U7" s="145"/>
+      <c r="V7" s="145"/>
     </row>
     <row r="8" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="135" t="s">
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="143" t="s">
         <v>250</v>
       </c>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="135"/>
-      <c r="N8" s="135"/>
-      <c r="O8" s="136" t="s">
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="136"/>
-      <c r="Q8" s="136"/>
-      <c r="R8" s="141" t="s">
+      <c r="P8" s="144"/>
+      <c r="Q8" s="144"/>
+      <c r="R8" s="145" t="s">
         <v>173</v>
       </c>
-      <c r="S8" s="141"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="141"/>
-      <c r="V8" s="141"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
       <c r="F9" s="140" t="s">
         <v>171</v>
       </c>
@@ -8865,27 +8330,27 @@
       <c r="L9" s="140"/>
       <c r="M9" s="140"/>
       <c r="N9" s="140"/>
-      <c r="O9" s="142" t="s">
+      <c r="O9" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="143">
+      <c r="P9" s="141"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="142">
         <v>46001</v>
       </c>
-      <c r="S9" s="143"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="143"/>
-      <c r="V9" s="143"/>
+      <c r="S9" s="142"/>
+      <c r="T9" s="142"/>
+      <c r="U9" s="142"/>
+      <c r="V9" s="142"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
       <c r="F10" s="140"/>
       <c r="G10" s="140"/>
       <c r="H10" s="140"/>
@@ -8895,870 +8360,895 @@
       <c r="L10" s="140"/>
       <c r="M10" s="140"/>
       <c r="N10" s="140"/>
-      <c r="O10" s="142" t="s">
+      <c r="O10" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="143"/>
-      <c r="S10" s="143"/>
-      <c r="T10" s="143"/>
-      <c r="U10" s="143"/>
-      <c r="V10" s="143"/>
+      <c r="P10" s="141"/>
+      <c r="Q10" s="141"/>
+      <c r="R10" s="142"/>
+      <c r="S10" s="142"/>
+      <c r="T10" s="142"/>
+      <c r="U10" s="142"/>
+      <c r="V10" s="142"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="144" t="s">
+      <c r="A11" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="144"/>
-      <c r="U11" s="144"/>
-      <c r="V11" s="144"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="134"/>
+      <c r="Q11" s="134"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="134"/>
+      <c r="T11" s="134"/>
+      <c r="U11" s="134"/>
+      <c r="V11" s="134"/>
     </row>
     <row r="12" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="136" t="s">
         <v>251</v>
       </c>
-      <c r="B12" s="146"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="146"/>
-      <c r="S12" s="146"/>
-      <c r="T12" s="146"/>
-      <c r="U12" s="146"/>
-      <c r="V12" s="146"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="136"/>
+      <c r="S12" s="136"/>
+      <c r="T12" s="136"/>
+      <c r="U12" s="136"/>
+      <c r="V12" s="136"/>
     </row>
     <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="146"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="146"/>
-      <c r="N13" s="146"/>
-      <c r="O13" s="146"/>
-      <c r="P13" s="146"/>
-      <c r="Q13" s="146"/>
-      <c r="R13" s="146"/>
-      <c r="S13" s="146"/>
-      <c r="T13" s="146"/>
-      <c r="U13" s="146"/>
-      <c r="V13" s="146"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="136"/>
+      <c r="S13" s="136"/>
+      <c r="T13" s="136"/>
+      <c r="U13" s="136"/>
+      <c r="V13" s="136"/>
     </row>
     <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="146"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="146"/>
-      <c r="S14" s="146"/>
-      <c r="T14" s="146"/>
-      <c r="U14" s="146"/>
-      <c r="V14" s="146"/>
+      <c r="A14" s="136"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="136"/>
+      <c r="S14" s="136"/>
+      <c r="T14" s="136"/>
+      <c r="U14" s="136"/>
+      <c r="V14" s="136"/>
     </row>
     <row r="15" spans="1:22" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="146"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="146"/>
-      <c r="N15" s="146"/>
-      <c r="O15" s="146"/>
-      <c r="P15" s="146"/>
-      <c r="Q15" s="146"/>
-      <c r="R15" s="146"/>
-      <c r="S15" s="146"/>
-      <c r="T15" s="146"/>
-      <c r="U15" s="146"/>
-      <c r="V15" s="146"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="136"/>
+      <c r="S15" s="136"/>
+      <c r="T15" s="136"/>
+      <c r="U15" s="136"/>
+      <c r="V15" s="136"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="144"/>
-      <c r="T16" s="144"/>
-      <c r="U16" s="144"/>
-      <c r="V16" s="144"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="134"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="134"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="134"/>
     </row>
     <row r="17" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="145" t="s">
+      <c r="A17" s="135" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="146"/>
-      <c r="N17" s="146"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="146"/>
-      <c r="S17" s="146"/>
-      <c r="T17" s="146"/>
-      <c r="U17" s="146"/>
-      <c r="V17" s="146"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="136"/>
+      <c r="S17" s="136"/>
+      <c r="T17" s="136"/>
+      <c r="U17" s="136"/>
+      <c r="V17" s="136"/>
     </row>
     <row r="18" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="146"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="146"/>
-      <c r="S18" s="146"/>
-      <c r="T18" s="146"/>
-      <c r="U18" s="146"/>
-      <c r="V18" s="146"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="136"/>
+      <c r="S18" s="136"/>
+      <c r="T18" s="136"/>
+      <c r="U18" s="136"/>
+      <c r="V18" s="136"/>
     </row>
     <row r="19" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="146"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="146"/>
-      <c r="N19" s="146"/>
-      <c r="O19" s="146"/>
-      <c r="P19" s="146"/>
-      <c r="Q19" s="146"/>
-      <c r="R19" s="146"/>
-      <c r="S19" s="146"/>
-      <c r="T19" s="146"/>
-      <c r="U19" s="146"/>
-      <c r="V19" s="146"/>
+      <c r="A19" s="136"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="136"/>
+      <c r="Q19" s="136"/>
+      <c r="R19" s="136"/>
+      <c r="S19" s="136"/>
+      <c r="T19" s="136"/>
+      <c r="U19" s="136"/>
+      <c r="V19" s="136"/>
     </row>
     <row r="20" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="146"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="146"/>
-      <c r="N20" s="146"/>
-      <c r="O20" s="146"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="146"/>
-      <c r="S20" s="146"/>
-      <c r="T20" s="146"/>
-      <c r="U20" s="146"/>
-      <c r="V20" s="146"/>
+      <c r="A20" s="136"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="136"/>
+      <c r="S20" s="136"/>
+      <c r="T20" s="136"/>
+      <c r="U20" s="136"/>
+      <c r="V20" s="136"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="144" t="s">
+      <c r="A21" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="144"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="144"/>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="144"/>
-      <c r="R21" s="144"/>
-      <c r="S21" s="144"/>
-      <c r="T21" s="144"/>
-      <c r="U21" s="144"/>
-      <c r="V21" s="144"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="134"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="134"/>
+      <c r="S21" s="134"/>
+      <c r="T21" s="134"/>
+      <c r="U21" s="134"/>
+      <c r="V21" s="134"/>
     </row>
     <row r="22" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="147"/>
-      <c r="B22" s="148"/>
-      <c r="C22" s="148"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="148"/>
-      <c r="K22" s="148"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="148"/>
-      <c r="N22" s="148"/>
-      <c r="O22" s="148"/>
-      <c r="P22" s="148"/>
-      <c r="Q22" s="148"/>
-      <c r="R22" s="148"/>
-      <c r="S22" s="148"/>
-      <c r="T22" s="148"/>
-      <c r="U22" s="148"/>
-      <c r="V22" s="148"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="138"/>
+      <c r="Q22" s="138"/>
+      <c r="R22" s="138"/>
+      <c r="S22" s="138"/>
+      <c r="T22" s="138"/>
+      <c r="U22" s="138"/>
+      <c r="V22" s="138"/>
     </row>
     <row r="23" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="148"/>
-      <c r="B23" s="148"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="148"/>
-      <c r="K23" s="148"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="148"/>
-      <c r="N23" s="148"/>
-      <c r="O23" s="148"/>
-      <c r="P23" s="148"/>
-      <c r="Q23" s="148"/>
-      <c r="R23" s="148"/>
-      <c r="S23" s="148"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="148"/>
-      <c r="V23" s="148"/>
+      <c r="A23" s="138"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
+      <c r="T23" s="138"/>
+      <c r="U23" s="138"/>
+      <c r="V23" s="138"/>
     </row>
     <row r="24" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="148"/>
-      <c r="B24" s="148"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="148"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="148"/>
-      <c r="K24" s="148"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="148"/>
-      <c r="N24" s="148"/>
-      <c r="O24" s="148"/>
-      <c r="P24" s="148"/>
-      <c r="Q24" s="148"/>
-      <c r="R24" s="148"/>
-      <c r="S24" s="148"/>
-      <c r="T24" s="148"/>
-      <c r="U24" s="148"/>
-      <c r="V24" s="148"/>
+      <c r="A24" s="138"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="138"/>
+      <c r="Q24" s="138"/>
+      <c r="R24" s="138"/>
+      <c r="S24" s="138"/>
+      <c r="T24" s="138"/>
+      <c r="U24" s="138"/>
+      <c r="V24" s="138"/>
     </row>
     <row r="25" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="148"/>
-      <c r="B25" s="148"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
-      <c r="N25" s="148"/>
-      <c r="O25" s="148"/>
-      <c r="P25" s="148"/>
-      <c r="Q25" s="148"/>
-      <c r="R25" s="148"/>
-      <c r="S25" s="148"/>
-      <c r="T25" s="148"/>
-      <c r="U25" s="148"/>
-      <c r="V25" s="148"/>
+      <c r="A25" s="138"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="138"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="138"/>
+      <c r="Q25" s="138"/>
+      <c r="R25" s="138"/>
+      <c r="S25" s="138"/>
+      <c r="T25" s="138"/>
+      <c r="U25" s="138"/>
+      <c r="V25" s="138"/>
     </row>
     <row r="26" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="148"/>
-      <c r="B26" s="148"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="148"/>
-      <c r="K26" s="148"/>
-      <c r="L26" s="148"/>
-      <c r="M26" s="148"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="148"/>
-      <c r="P26" s="148"/>
-      <c r="Q26" s="148"/>
-      <c r="R26" s="148"/>
-      <c r="S26" s="148"/>
-      <c r="T26" s="148"/>
-      <c r="U26" s="148"/>
-      <c r="V26" s="148"/>
+      <c r="A26" s="138"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
+      <c r="U26" s="138"/>
+      <c r="V26" s="138"/>
     </row>
     <row r="27" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="148"/>
-      <c r="B27" s="148"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="148"/>
-      <c r="K27" s="148"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="148"/>
-      <c r="N27" s="148"/>
-      <c r="O27" s="148"/>
-      <c r="P27" s="148"/>
-      <c r="Q27" s="148"/>
-      <c r="R27" s="148"/>
-      <c r="S27" s="148"/>
-      <c r="T27" s="148"/>
-      <c r="U27" s="148"/>
-      <c r="V27" s="148"/>
+      <c r="A27" s="138"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="138"/>
+      <c r="P27" s="138"/>
+      <c r="Q27" s="138"/>
+      <c r="R27" s="138"/>
+      <c r="S27" s="138"/>
+      <c r="T27" s="138"/>
+      <c r="U27" s="138"/>
+      <c r="V27" s="138"/>
     </row>
     <row r="28" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="148"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="148"/>
-      <c r="N28" s="148"/>
-      <c r="O28" s="148"/>
-      <c r="P28" s="148"/>
-      <c r="Q28" s="148"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="148"/>
-      <c r="T28" s="148"/>
-      <c r="U28" s="148"/>
-      <c r="V28" s="148"/>
+      <c r="A28" s="138"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="138"/>
+      <c r="Q28" s="138"/>
+      <c r="R28" s="138"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="138"/>
+      <c r="U28" s="138"/>
+      <c r="V28" s="138"/>
     </row>
     <row r="29" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="148"/>
-      <c r="B29" s="148"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="148"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="148"/>
-      <c r="N29" s="148"/>
-      <c r="O29" s="148"/>
-      <c r="P29" s="148"/>
-      <c r="Q29" s="148"/>
-      <c r="R29" s="148"/>
-      <c r="S29" s="148"/>
-      <c r="T29" s="148"/>
-      <c r="U29" s="148"/>
-      <c r="V29" s="148"/>
+      <c r="A29" s="138"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="138"/>
+      <c r="P29" s="138"/>
+      <c r="Q29" s="138"/>
+      <c r="R29" s="138"/>
+      <c r="S29" s="138"/>
+      <c r="T29" s="138"/>
+      <c r="U29" s="138"/>
+      <c r="V29" s="138"/>
     </row>
     <row r="30" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="148"/>
-      <c r="B30" s="148"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="148"/>
-      <c r="L30" s="148"/>
-      <c r="M30" s="148"/>
-      <c r="N30" s="148"/>
-      <c r="O30" s="148"/>
-      <c r="P30" s="148"/>
-      <c r="Q30" s="148"/>
-      <c r="R30" s="148"/>
-      <c r="S30" s="148"/>
-      <c r="T30" s="148"/>
-      <c r="U30" s="148"/>
-      <c r="V30" s="148"/>
+      <c r="A30" s="138"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="138"/>
+      <c r="M30" s="138"/>
+      <c r="N30" s="138"/>
+      <c r="O30" s="138"/>
+      <c r="P30" s="138"/>
+      <c r="Q30" s="138"/>
+      <c r="R30" s="138"/>
+      <c r="S30" s="138"/>
+      <c r="T30" s="138"/>
+      <c r="U30" s="138"/>
+      <c r="V30" s="138"/>
     </row>
     <row r="31" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="148"/>
-      <c r="B31" s="148"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="148"/>
-      <c r="K31" s="148"/>
-      <c r="L31" s="148"/>
-      <c r="M31" s="148"/>
-      <c r="N31" s="148"/>
-      <c r="O31" s="148"/>
-      <c r="P31" s="148"/>
-      <c r="Q31" s="148"/>
-      <c r="R31" s="148"/>
-      <c r="S31" s="148"/>
-      <c r="T31" s="148"/>
-      <c r="U31" s="148"/>
-      <c r="V31" s="148"/>
+      <c r="A31" s="138"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="138"/>
+      <c r="L31" s="138"/>
+      <c r="M31" s="138"/>
+      <c r="N31" s="138"/>
+      <c r="O31" s="138"/>
+      <c r="P31" s="138"/>
+      <c r="Q31" s="138"/>
+      <c r="R31" s="138"/>
+      <c r="S31" s="138"/>
+      <c r="T31" s="138"/>
+      <c r="U31" s="138"/>
+      <c r="V31" s="138"/>
     </row>
     <row r="32" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="148"/>
-      <c r="B32" s="148"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="148"/>
-      <c r="K32" s="148"/>
-      <c r="L32" s="148"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="148"/>
-      <c r="O32" s="148"/>
-      <c r="P32" s="148"/>
-      <c r="Q32" s="148"/>
-      <c r="R32" s="148"/>
-      <c r="S32" s="148"/>
-      <c r="T32" s="148"/>
-      <c r="U32" s="148"/>
-      <c r="V32" s="148"/>
+      <c r="A32" s="138"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="138"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="138"/>
+      <c r="O32" s="138"/>
+      <c r="P32" s="138"/>
+      <c r="Q32" s="138"/>
+      <c r="R32" s="138"/>
+      <c r="S32" s="138"/>
+      <c r="T32" s="138"/>
+      <c r="U32" s="138"/>
+      <c r="V32" s="138"/>
     </row>
     <row r="33" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="148"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="148"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="148"/>
-      <c r="P33" s="148"/>
-      <c r="Q33" s="148"/>
-      <c r="R33" s="148"/>
-      <c r="S33" s="148"/>
-      <c r="T33" s="148"/>
-      <c r="U33" s="148"/>
-      <c r="V33" s="148"/>
+      <c r="A33" s="138"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="138"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="138"/>
+      <c r="M33" s="138"/>
+      <c r="N33" s="138"/>
+      <c r="O33" s="138"/>
+      <c r="P33" s="138"/>
+      <c r="Q33" s="138"/>
+      <c r="R33" s="138"/>
+      <c r="S33" s="138"/>
+      <c r="T33" s="138"/>
+      <c r="U33" s="138"/>
+      <c r="V33" s="138"/>
     </row>
     <row r="34" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="148"/>
-      <c r="B34" s="148"/>
-      <c r="C34" s="148"/>
-      <c r="D34" s="148"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="148"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="148"/>
-      <c r="N34" s="148"/>
-      <c r="O34" s="148"/>
-      <c r="P34" s="148"/>
-      <c r="Q34" s="148"/>
-      <c r="R34" s="148"/>
-      <c r="S34" s="148"/>
-      <c r="T34" s="148"/>
-      <c r="U34" s="148"/>
-      <c r="V34" s="148"/>
+      <c r="A34" s="138"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="138"/>
+      <c r="L34" s="138"/>
+      <c r="M34" s="138"/>
+      <c r="N34" s="138"/>
+      <c r="O34" s="138"/>
+      <c r="P34" s="138"/>
+      <c r="Q34" s="138"/>
+      <c r="R34" s="138"/>
+      <c r="S34" s="138"/>
+      <c r="T34" s="138"/>
+      <c r="U34" s="138"/>
+      <c r="V34" s="138"/>
     </row>
     <row r="35" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="148"/>
-      <c r="B35" s="148"/>
-      <c r="C35" s="148"/>
-      <c r="D35" s="148"/>
-      <c r="E35" s="148"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="148"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="148"/>
-      <c r="M35" s="148"/>
-      <c r="N35" s="148"/>
-      <c r="O35" s="148"/>
-      <c r="P35" s="148"/>
-      <c r="Q35" s="148"/>
-      <c r="R35" s="148"/>
-      <c r="S35" s="148"/>
-      <c r="T35" s="148"/>
-      <c r="U35" s="148"/>
-      <c r="V35" s="148"/>
+      <c r="A35" s="138"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="138"/>
+      <c r="F35" s="138"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="138"/>
+      <c r="K35" s="138"/>
+      <c r="L35" s="138"/>
+      <c r="M35" s="138"/>
+      <c r="N35" s="138"/>
+      <c r="O35" s="138"/>
+      <c r="P35" s="138"/>
+      <c r="Q35" s="138"/>
+      <c r="R35" s="138"/>
+      <c r="S35" s="138"/>
+      <c r="T35" s="138"/>
+      <c r="U35" s="138"/>
+      <c r="V35" s="138"/>
     </row>
     <row r="36" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="148"/>
-      <c r="B36" s="148"/>
-      <c r="C36" s="148"/>
-      <c r="D36" s="148"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="148"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="148"/>
-      <c r="J36" s="148"/>
-      <c r="K36" s="148"/>
-      <c r="L36" s="148"/>
-      <c r="M36" s="148"/>
-      <c r="N36" s="148"/>
-      <c r="O36" s="148"/>
-      <c r="P36" s="148"/>
-      <c r="Q36" s="148"/>
-      <c r="R36" s="148"/>
-      <c r="S36" s="148"/>
-      <c r="T36" s="148"/>
-      <c r="U36" s="148"/>
-      <c r="V36" s="148"/>
+      <c r="A36" s="138"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="138"/>
+      <c r="K36" s="138"/>
+      <c r="L36" s="138"/>
+      <c r="M36" s="138"/>
+      <c r="N36" s="138"/>
+      <c r="O36" s="138"/>
+      <c r="P36" s="138"/>
+      <c r="Q36" s="138"/>
+      <c r="R36" s="138"/>
+      <c r="S36" s="138"/>
+      <c r="T36" s="138"/>
+      <c r="U36" s="138"/>
+      <c r="V36" s="138"/>
     </row>
     <row r="37" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="148"/>
-      <c r="B37" s="148"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
-      <c r="K37" s="148"/>
-      <c r="L37" s="148"/>
-      <c r="M37" s="148"/>
-      <c r="N37" s="148"/>
-      <c r="O37" s="148"/>
-      <c r="P37" s="148"/>
-      <c r="Q37" s="148"/>
-      <c r="R37" s="148"/>
-      <c r="S37" s="148"/>
-      <c r="T37" s="148"/>
-      <c r="U37" s="148"/>
-      <c r="V37" s="148"/>
+      <c r="A37" s="138"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="138"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="138"/>
+      <c r="K37" s="138"/>
+      <c r="L37" s="138"/>
+      <c r="M37" s="138"/>
+      <c r="N37" s="138"/>
+      <c r="O37" s="138"/>
+      <c r="P37" s="138"/>
+      <c r="Q37" s="138"/>
+      <c r="R37" s="138"/>
+      <c r="S37" s="138"/>
+      <c r="T37" s="138"/>
+      <c r="U37" s="138"/>
+      <c r="V37" s="138"/>
     </row>
     <row r="38" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="148"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="148"/>
-      <c r="M38" s="148"/>
-      <c r="N38" s="148"/>
-      <c r="O38" s="148"/>
-      <c r="P38" s="148"/>
-      <c r="Q38" s="148"/>
-      <c r="R38" s="148"/>
-      <c r="S38" s="148"/>
-      <c r="T38" s="148"/>
-      <c r="U38" s="148"/>
-      <c r="V38" s="148"/>
+      <c r="A38" s="138"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="138"/>
+      <c r="I38" s="138"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="138"/>
+      <c r="M38" s="138"/>
+      <c r="N38" s="138"/>
+      <c r="O38" s="138"/>
+      <c r="P38" s="138"/>
+      <c r="Q38" s="138"/>
+      <c r="R38" s="138"/>
+      <c r="S38" s="138"/>
+      <c r="T38" s="138"/>
+      <c r="U38" s="138"/>
+      <c r="V38" s="138"/>
     </row>
     <row r="39" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="148"/>
-      <c r="B39" s="148"/>
-      <c r="C39" s="148"/>
-      <c r="D39" s="148"/>
-      <c r="E39" s="148"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="148"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="148"/>
-      <c r="J39" s="148"/>
-      <c r="K39" s="148"/>
-      <c r="L39" s="148"/>
-      <c r="M39" s="148"/>
-      <c r="N39" s="148"/>
-      <c r="O39" s="148"/>
-      <c r="P39" s="148"/>
-      <c r="Q39" s="148"/>
-      <c r="R39" s="148"/>
-      <c r="S39" s="148"/>
-      <c r="T39" s="148"/>
-      <c r="U39" s="148"/>
-      <c r="V39" s="148"/>
+      <c r="A39" s="138"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="138"/>
+      <c r="J39" s="138"/>
+      <c r="K39" s="138"/>
+      <c r="L39" s="138"/>
+      <c r="M39" s="138"/>
+      <c r="N39" s="138"/>
+      <c r="O39" s="138"/>
+      <c r="P39" s="138"/>
+      <c r="Q39" s="138"/>
+      <c r="R39" s="138"/>
+      <c r="S39" s="138"/>
+      <c r="T39" s="138"/>
+      <c r="U39" s="138"/>
+      <c r="V39" s="138"/>
     </row>
     <row r="40" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="148"/>
-      <c r="B40" s="148"/>
-      <c r="C40" s="148"/>
-      <c r="D40" s="148"/>
-      <c r="E40" s="148"/>
-      <c r="F40" s="148"/>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="148"/>
-      <c r="K40" s="148"/>
-      <c r="L40" s="148"/>
-      <c r="M40" s="148"/>
-      <c r="N40" s="148"/>
-      <c r="O40" s="148"/>
-      <c r="P40" s="148"/>
-      <c r="Q40" s="148"/>
-      <c r="R40" s="148"/>
-      <c r="S40" s="148"/>
-      <c r="T40" s="148"/>
-      <c r="U40" s="148"/>
-      <c r="V40" s="148"/>
+      <c r="A40" s="138"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="138"/>
+      <c r="K40" s="138"/>
+      <c r="L40" s="138"/>
+      <c r="M40" s="138"/>
+      <c r="N40" s="138"/>
+      <c r="O40" s="138"/>
+      <c r="P40" s="138"/>
+      <c r="Q40" s="138"/>
+      <c r="R40" s="138"/>
+      <c r="S40" s="138"/>
+      <c r="T40" s="138"/>
+      <c r="U40" s="138"/>
+      <c r="V40" s="138"/>
     </row>
     <row r="41" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="148"/>
-      <c r="B41" s="148"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="148"/>
-      <c r="K41" s="148"/>
-      <c r="L41" s="148"/>
-      <c r="M41" s="148"/>
-      <c r="N41" s="148"/>
-      <c r="O41" s="148"/>
-      <c r="P41" s="148"/>
-      <c r="Q41" s="148"/>
-      <c r="R41" s="148"/>
-      <c r="S41" s="148"/>
-      <c r="T41" s="148"/>
-      <c r="U41" s="148"/>
-      <c r="V41" s="148"/>
+      <c r="A41" s="138"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="138"/>
+      <c r="K41" s="138"/>
+      <c r="L41" s="138"/>
+      <c r="M41" s="138"/>
+      <c r="N41" s="138"/>
+      <c r="O41" s="138"/>
+      <c r="P41" s="138"/>
+      <c r="Q41" s="138"/>
+      <c r="R41" s="138"/>
+      <c r="S41" s="138"/>
+      <c r="T41" s="138"/>
+      <c r="U41" s="138"/>
+      <c r="V41" s="138"/>
     </row>
     <row r="42" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="148"/>
-      <c r="B42" s="148"/>
-      <c r="C42" s="148"/>
-      <c r="D42" s="148"/>
-      <c r="E42" s="148"/>
-      <c r="F42" s="148"/>
-      <c r="G42" s="148"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="148"/>
-      <c r="K42" s="148"/>
-      <c r="L42" s="148"/>
-      <c r="M42" s="148"/>
-      <c r="N42" s="148"/>
-      <c r="O42" s="148"/>
-      <c r="P42" s="148"/>
-      <c r="Q42" s="148"/>
-      <c r="R42" s="148"/>
-      <c r="S42" s="148"/>
-      <c r="T42" s="148"/>
-      <c r="U42" s="148"/>
-      <c r="V42" s="148"/>
+      <c r="A42" s="138"/>
+      <c r="B42" s="138"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="138"/>
+      <c r="F42" s="138"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="138"/>
+      <c r="J42" s="138"/>
+      <c r="K42" s="138"/>
+      <c r="L42" s="138"/>
+      <c r="M42" s="138"/>
+      <c r="N42" s="138"/>
+      <c r="O42" s="138"/>
+      <c r="P42" s="138"/>
+      <c r="Q42" s="138"/>
+      <c r="R42" s="138"/>
+      <c r="S42" s="138"/>
+      <c r="T42" s="138"/>
+      <c r="U42" s="138"/>
+      <c r="V42" s="138"/>
     </row>
     <row r="43" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="148"/>
-      <c r="B43" s="148"/>
-      <c r="C43" s="148"/>
-      <c r="D43" s="148"/>
-      <c r="E43" s="148"/>
-      <c r="F43" s="148"/>
-      <c r="G43" s="148"/>
-      <c r="H43" s="148"/>
-      <c r="I43" s="148"/>
-      <c r="J43" s="148"/>
-      <c r="K43" s="148"/>
-      <c r="L43" s="148"/>
-      <c r="M43" s="148"/>
-      <c r="N43" s="148"/>
-      <c r="O43" s="148"/>
-      <c r="P43" s="148"/>
-      <c r="Q43" s="148"/>
-      <c r="R43" s="148"/>
-      <c r="S43" s="148"/>
-      <c r="T43" s="148"/>
-      <c r="U43" s="148"/>
-      <c r="V43" s="148"/>
+      <c r="A43" s="138"/>
+      <c r="B43" s="138"/>
+      <c r="C43" s="138"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="138"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="138"/>
+      <c r="J43" s="138"/>
+      <c r="K43" s="138"/>
+      <c r="L43" s="138"/>
+      <c r="M43" s="138"/>
+      <c r="N43" s="138"/>
+      <c r="O43" s="138"/>
+      <c r="P43" s="138"/>
+      <c r="Q43" s="138"/>
+      <c r="R43" s="138"/>
+      <c r="S43" s="138"/>
+      <c r="T43" s="138"/>
+      <c r="U43" s="138"/>
+      <c r="V43" s="138"/>
     </row>
     <row r="44" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="148"/>
-      <c r="B44" s="148"/>
-      <c r="C44" s="148"/>
-      <c r="D44" s="148"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="148"/>
-      <c r="G44" s="148"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="148"/>
-      <c r="J44" s="148"/>
-      <c r="K44" s="148"/>
-      <c r="L44" s="148"/>
-      <c r="M44" s="148"/>
-      <c r="N44" s="148"/>
-      <c r="O44" s="148"/>
-      <c r="P44" s="148"/>
-      <c r="Q44" s="148"/>
-      <c r="R44" s="148"/>
-      <c r="S44" s="148"/>
-      <c r="T44" s="148"/>
-      <c r="U44" s="148"/>
-      <c r="V44" s="148"/>
+      <c r="A44" s="138"/>
+      <c r="B44" s="138"/>
+      <c r="C44" s="138"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="138"/>
+      <c r="G44" s="138"/>
+      <c r="H44" s="138"/>
+      <c r="I44" s="138"/>
+      <c r="J44" s="138"/>
+      <c r="K44" s="138"/>
+      <c r="L44" s="138"/>
+      <c r="M44" s="138"/>
+      <c r="N44" s="138"/>
+      <c r="O44" s="138"/>
+      <c r="P44" s="138"/>
+      <c r="Q44" s="138"/>
+      <c r="R44" s="138"/>
+      <c r="S44" s="138"/>
+      <c r="T44" s="138"/>
+      <c r="U44" s="138"/>
+      <c r="V44" s="138"/>
     </row>
     <row r="45" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="148"/>
-      <c r="B45" s="148"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="148"/>
-      <c r="E45" s="148"/>
-      <c r="F45" s="148"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
-      <c r="J45" s="148"/>
-      <c r="K45" s="148"/>
-      <c r="L45" s="148"/>
-      <c r="M45" s="148"/>
-      <c r="N45" s="148"/>
-      <c r="O45" s="148"/>
-      <c r="P45" s="148"/>
-      <c r="Q45" s="148"/>
-      <c r="R45" s="148"/>
-      <c r="S45" s="148"/>
-      <c r="T45" s="148"/>
-      <c r="U45" s="148"/>
-      <c r="V45" s="148"/>
+      <c r="A45" s="138"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="138"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="138"/>
+      <c r="G45" s="138"/>
+      <c r="H45" s="138"/>
+      <c r="I45" s="138"/>
+      <c r="J45" s="138"/>
+      <c r="K45" s="138"/>
+      <c r="L45" s="138"/>
+      <c r="M45" s="138"/>
+      <c r="N45" s="138"/>
+      <c r="O45" s="138"/>
+      <c r="P45" s="138"/>
+      <c r="Q45" s="138"/>
+      <c r="R45" s="138"/>
+      <c r="S45" s="138"/>
+      <c r="T45" s="138"/>
+      <c r="U45" s="138"/>
+      <c r="V45" s="138"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="35">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:V9"/>
     <mergeCell ref="A16:V16"/>
     <mergeCell ref="A17:V20"/>
     <mergeCell ref="A21:V21"/>
@@ -9769,31 +9259,6 @@
     <mergeCell ref="R10:V10"/>
     <mergeCell ref="A11:V11"/>
     <mergeCell ref="A12:V15"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="A1:V3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:V4"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F6">
@@ -9827,9 +9292,9 @@
   <dimension ref="A1:O806"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B11" sqref="B11"/>
-      <selection pane="bottomLeft" activeCell="A176" sqref="A176"/>
+      <selection pane="bottomLeft" activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9926,7 +9391,7 @@
       </c>
       <c r="L4" s="116">
         <f>SUM(H8:H806)</f>
-        <v>466</v>
+        <v>593</v>
       </c>
       <c r="M4" s="152"/>
       <c r="N4" s="152"/>
@@ -9954,7 +9419,7 @@
       </c>
       <c r="L5" s="116">
         <f>SUM(K8:K806)</f>
-        <v>466</v>
+        <v>593</v>
       </c>
       <c r="M5" s="154"/>
       <c r="N5" s="154"/>
@@ -9982,7 +9447,7 @@
       </c>
       <c r="L6" s="116">
         <f>SUM(L8:L806)</f>
-        <v>466</v>
+        <v>593</v>
       </c>
       <c r="M6" s="152"/>
       <c r="N6" s="152"/>
@@ -10042,7 +9507,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="str">
-        <f t="shared" ref="F8:F205" si="0">IF(ISBLANK(B8),"",IF(I8="L","Baixa",IF(I8="A","Média",IF(I8="","","Alta"))))</f>
+        <f t="shared" ref="F8:F150" si="0">IF(ISBLANK(B8),"",IF(I8="L","Baixa",IF(I8="A","Média",IF(I8="","","Alta"))))</f>
         <v/>
       </c>
       <c r="G8" s="7" t="str">
@@ -10050,19 +9515,19 @@
         <v/>
       </c>
       <c r="H8" s="5" t="str">
-        <f t="shared" ref="H8:H205" si="2">IF(ISBLANK(B8),"",IF(B8="ALI",IF(I8="L",7,IF(I8="A",10,15)),IF(B8="AIE",IF(I8="L",5,IF(I8="A",7,10)),IF(B8="SE",IF(I8="L",4,IF(I8="A",5,7)),IF(OR(B8="EE",B8="CE"),IF(I8="L",3,IF(I8="A",4,6)),0)))))</f>
+        <f t="shared" ref="H8:H150" si="2">IF(ISBLANK(B8),"",IF(B8="ALI",IF(I8="L",7,IF(I8="A",10,15)),IF(B8="AIE",IF(I8="L",5,IF(I8="A",7,10)),IF(B8="SE",IF(I8="L",4,IF(I8="A",5,7)),IF(OR(B8="EE",B8="CE"),IF(I8="L",3,IF(I8="A",4,6)),0)))))</f>
         <v/>
       </c>
       <c r="I8" s="122" t="str">
-        <f t="shared" ref="I8:I205" si="3">IF(OR(ISBLANK(D8),ISBLANK(E8)),IF(OR(B8="ALI",B8="AIE"),"L",IF(OR(B8="EE",B8="SE",B8="CE"),"A","")),IF(B8="EE",IF(E8&gt;=3,IF(D8&gt;=5,"H","A"),IF(E8&gt;=2,IF(D8&gt;=16,"H",IF(D8&lt;=4,"L","A")),IF(D8&lt;=15,"L","A"))),IF(OR(B8="SE",B8="CE"),IF(E8&gt;=4,IF(D8&gt;=6,"H","A"),IF(E8&gt;=2,IF(D8&gt;=20,"H",IF(D8&lt;=5,"L","A")),IF(D8&lt;=19,"L","A"))),IF(OR(B8="ALI",B8="AIE"),IF(E8&gt;=6,IF(D8&gt;=20,"H","A"),IF(E8&gt;=2,IF(D8&gt;=51,"H",IF(D8&lt;=19,"L","A")),IF(D8&lt;=50,"L","A"))),""))))</f>
+        <f t="shared" ref="I8:I150" si="3">IF(OR(ISBLANK(D8),ISBLANK(E8)),IF(OR(B8="ALI",B8="AIE"),"L",IF(OR(B8="EE",B8="SE",B8="CE"),"A","")),IF(B8="EE",IF(E8&gt;=3,IF(D8&gt;=5,"H","A"),IF(E8&gt;=2,IF(D8&gt;=16,"H",IF(D8&lt;=4,"L","A")),IF(D8&lt;=15,"L","A"))),IF(OR(B8="SE",B8="CE"),IF(E8&gt;=4,IF(D8&gt;=6,"H","A"),IF(E8&gt;=2,IF(D8&gt;=20,"H",IF(D8&lt;=5,"L","A")),IF(D8&lt;=19,"L","A"))),IF(OR(B8="ALI",B8="AIE"),IF(E8&gt;=6,IF(D8&gt;=20,"H","A"),IF(E8&gt;=2,IF(D8&gt;=51,"H",IF(D8&lt;=19,"L","A")),IF(D8&lt;=50,"L","A"))),""))))</f>
         <v/>
       </c>
       <c r="J8" s="7" t="str">
-        <f t="shared" ref="J8:J205" si="4">CONCATENATE(B8,C8)</f>
+        <f t="shared" ref="J8:J150" si="4">CONCATENATE(B8,C8)</f>
         <v/>
       </c>
       <c r="K8" s="9" t="str">
-        <f t="shared" ref="K8:K214" si="5">IF(OR(H8="",H8=0),L8,H8)</f>
+        <f t="shared" ref="K8:K150" si="5">IF(OR(H8="",H8=0),L8,H8)</f>
         <v/>
       </c>
       <c r="L8" s="9" t="str">
@@ -16729,7 +16194,7 @@
       <c r="N166" s="10"/>
       <c r="O166" s="6"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A167" s="126" t="s">
         <v>301</v>
       </c>
@@ -16771,7 +16236,9 @@
       </c>
       <c r="M167" s="10"/>
       <c r="N167" s="10"/>
-      <c r="O167" s="6"/>
+      <c r="O167" s="6" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="168" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="126" t="s">
@@ -17164,7 +16631,9 @@
       <c r="O176" s="6"/>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A177" s="128"/>
+      <c r="A177" s="128" t="s">
+        <v>311</v>
+      </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="7"/>
@@ -17202,42 +16671,50 @@
       <c r="O177" s="6"/>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A178" s="126"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
+      <c r="A178" s="126" t="s">
+        <v>312</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
       <c r="F178" s="8" t="str">
         <f t="shared" si="372"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G178" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H178" s="5" t="str">
+        <v>SEA</v>
+      </c>
+      <c r="H178" s="5">
         <f t="shared" si="373"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I178" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J178" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K178" s="9" t="str">
+        <v>SEI</v>
+      </c>
+      <c r="K178" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L178" s="9" t="str">
+        <v>5</v>
+      </c>
+      <c r="L178" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B178,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B178,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C178),ISBLANK(B178)),"",VLOOKUP(C178,Deflatores!G$4:H$38,2,FALSE)*H178+VLOOKUP(C178,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="M178" s="10"/>
       <c r="N178" s="10"/>
-      <c r="O178" s="6"/>
+      <c r="O178" s="6" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="126"/>
@@ -17278,7 +16755,9 @@
       <c r="O179" s="6"/>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A180" s="126"/>
+      <c r="A180" s="128" t="s">
+        <v>314</v>
+      </c>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="7"/>
@@ -17316,38 +16795,44 @@
       <c r="O180" s="6"/>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A181" s="126"/>
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
+      <c r="A181" s="126" t="s">
+        <v>315</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
       <c r="F181" s="8" t="str">
         <f t="shared" si="372"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G181" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H181" s="5" t="str">
+        <v>SEA</v>
+      </c>
+      <c r="H181" s="5">
         <f t="shared" si="373"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I181" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J181" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K181" s="9" t="str">
+        <v>SEI</v>
+      </c>
+      <c r="K181" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L181" s="9" t="str">
+        <v>5</v>
+      </c>
+      <c r="L181" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B181,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B181,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C181),ISBLANK(B181)),"",VLOOKUP(C181,Deflatores!G$4:H$38,2,FALSE)*H181+VLOOKUP(C181,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="M181" s="10"/>
       <c r="N181" s="10"/>
@@ -17392,7 +16877,9 @@
       <c r="O182" s="6"/>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A183" s="128"/>
+      <c r="A183" s="128" t="s">
+        <v>316</v>
+      </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="7"/>
@@ -17430,38 +16917,44 @@
       <c r="O183" s="6"/>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A184" s="126"/>
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
+      <c r="A184" s="126" t="s">
+        <v>317</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
       <c r="F184" s="8" t="str">
         <f t="shared" si="372"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G184" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H184" s="5" t="str">
+        <v>SEA</v>
+      </c>
+      <c r="H184" s="5">
         <f t="shared" si="373"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I184" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J184" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K184" s="9" t="str">
+        <v>SEI</v>
+      </c>
+      <c r="K184" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L184" s="9" t="str">
+        <v>5</v>
+      </c>
+      <c r="L184" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B184,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B184,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C184),ISBLANK(B184)),"",VLOOKUP(C184,Deflatores!G$4:H$38,2,FALSE)*H184+VLOOKUP(C184,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="M184" s="10"/>
       <c r="N184" s="10"/>
@@ -17506,7 +16999,9 @@
       <c r="O185" s="6"/>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A186" s="126"/>
+      <c r="A186" s="128" t="s">
+        <v>318</v>
+      </c>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="7"/>
@@ -17544,38 +17039,44 @@
       <c r="O186" s="6"/>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A187" s="126"/>
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
+      <c r="A187" s="126" t="s">
+        <v>319</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
       <c r="F187" s="8" t="str">
         <f t="shared" si="372"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G187" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H187" s="5" t="str">
+        <v>EEA</v>
+      </c>
+      <c r="H187" s="5">
         <f t="shared" si="373"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I187" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J187" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K187" s="9" t="str">
+        <v>EEI</v>
+      </c>
+      <c r="K187" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L187" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="L187" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B187,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B187,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C187),ISBLANK(B187)),"",VLOOKUP(C187,Deflatores!G$4:H$38,2,FALSE)*H187+VLOOKUP(C187,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M187" s="10"/>
       <c r="N187" s="10"/>
@@ -17620,7 +17121,9 @@
       <c r="O188" s="6"/>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A189" s="126"/>
+      <c r="A189" s="128" t="s">
+        <v>320</v>
+      </c>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="7"/>
@@ -17658,38 +17161,44 @@
       <c r="O189" s="6"/>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A190" s="126"/>
-      <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
+      <c r="A190" s="126" t="s">
+        <v>321</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
       <c r="F190" s="8" t="str">
         <f t="shared" si="372"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G190" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H190" s="5" t="str">
+        <v>CEA</v>
+      </c>
+      <c r="H190" s="5">
         <f t="shared" si="373"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I190" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J190" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K190" s="9" t="str">
+        <v>CEI</v>
+      </c>
+      <c r="K190" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L190" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="L190" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B190,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B190,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C190),ISBLANK(B190)),"",VLOOKUP(C190,Deflatores!G$4:H$38,2,FALSE)*H190+VLOOKUP(C190,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M190" s="10"/>
       <c r="N190" s="10"/>
@@ -17733,8 +17242,10 @@
       <c r="N191" s="10"/>
       <c r="O191" s="6"/>
     </row>
-    <row r="192" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="128"/>
+    <row r="192" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="128" t="s">
+        <v>322</v>
+      </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="7"/>
@@ -17772,76 +17283,88 @@
       <c r="O192" s="6"/>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A193" s="126"/>
-      <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
+      <c r="A193" s="126" t="s">
+        <v>323</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
       <c r="F193" s="8" t="str">
         <f t="shared" si="372"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G193" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H193" s="5" t="str">
+        <v>CEA</v>
+      </c>
+      <c r="H193" s="5">
         <f t="shared" si="373"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I193" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J193" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K193" s="9" t="str">
+        <v>CEI</v>
+      </c>
+      <c r="K193" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L193" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="L193" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B193,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B193,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C193),ISBLANK(B193)),"",VLOOKUP(C193,Deflatores!G$4:H$38,2,FALSE)*H193+VLOOKUP(C193,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M193" s="10"/>
       <c r="N193" s="10"/>
       <c r="O193" s="6"/>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A194" s="126"/>
-      <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
+      <c r="A194" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
       <c r="F194" s="8" t="str">
         <f t="shared" si="372"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G194" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H194" s="5" t="str">
+        <v>CEA</v>
+      </c>
+      <c r="H194" s="5">
         <f t="shared" si="373"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I194" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J194" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K194" s="9" t="str">
+        <v>CEI</v>
+      </c>
+      <c r="K194" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L194" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="L194" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B194,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B194,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C194),ISBLANK(B194)),"",VLOOKUP(C194,Deflatores!G$4:H$38,2,FALSE)*H194+VLOOKUP(C194,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M194" s="10"/>
       <c r="N194" s="10"/>
@@ -17886,7 +17409,9 @@
       <c r="O195" s="6"/>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A196" s="126"/>
+      <c r="A196" s="128" t="s">
+        <v>325</v>
+      </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="7"/>
@@ -17924,266 +17449,308 @@
       <c r="O196" s="6"/>
     </row>
     <row r="197" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="128"/>
-      <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
+      <c r="A197" s="126" t="s">
+        <v>326</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
       <c r="F197" s="8" t="str">
         <f t="shared" si="372"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G197" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H197" s="5" t="str">
+        <v>SEA</v>
+      </c>
+      <c r="H197" s="5">
         <f t="shared" si="373"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I197" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J197" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K197" s="9" t="str">
+        <v>SEI</v>
+      </c>
+      <c r="K197" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L197" s="9" t="str">
+        <v>5</v>
+      </c>
+      <c r="L197" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B197,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B197,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C197),ISBLANK(B197)),"",VLOOKUP(C197,Deflatores!G$4:H$38,2,FALSE)*H197+VLOOKUP(C197,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="M197" s="10"/>
       <c r="N197" s="10"/>
       <c r="O197" s="6"/>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A198" s="126"/>
-      <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
+      <c r="A198" s="126" t="s">
+        <v>327</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
       <c r="F198" s="8" t="str">
         <f t="shared" si="372"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G198" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H198" s="5" t="str">
+        <v>SEA</v>
+      </c>
+      <c r="H198" s="5">
         <f t="shared" si="373"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I198" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J198" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K198" s="9" t="str">
+        <v>SEI</v>
+      </c>
+      <c r="K198" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L198" s="9" t="str">
+        <v>5</v>
+      </c>
+      <c r="L198" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B198,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B198,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C198),ISBLANK(B198)),"",VLOOKUP(C198,Deflatores!G$4:H$38,2,FALSE)*H198+VLOOKUP(C198,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="M198" s="10"/>
       <c r="N198" s="10"/>
       <c r="O198" s="6"/>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A199" s="126"/>
-      <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
+      <c r="A199" s="126" t="s">
+        <v>328</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
       <c r="F199" s="8" t="str">
         <f t="shared" si="372"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G199" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H199" s="5" t="str">
+        <v>SEA</v>
+      </c>
+      <c r="H199" s="5">
         <f t="shared" si="373"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I199" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J199" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K199" s="9" t="str">
+        <v>SEI</v>
+      </c>
+      <c r="K199" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L199" s="9" t="str">
+        <v>5</v>
+      </c>
+      <c r="L199" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B199,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B199,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C199),ISBLANK(B199)),"",VLOOKUP(C199,Deflatores!G$4:H$38,2,FALSE)*H199+VLOOKUP(C199,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="M199" s="10"/>
       <c r="N199" s="10"/>
       <c r="O199" s="6"/>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A200" s="126"/>
-      <c r="B200" s="4"/>
-      <c r="C200" s="4"/>
+      <c r="A200" s="126" t="s">
+        <v>329</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
       <c r="F200" s="8" t="str">
         <f t="shared" si="372"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G200" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H200" s="5" t="str">
+        <v>CEA</v>
+      </c>
+      <c r="H200" s="5">
         <f t="shared" si="373"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I200" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J200" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K200" s="9" t="str">
+        <v>CEI</v>
+      </c>
+      <c r="K200" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L200" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="L200" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B200,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B200,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C200),ISBLANK(B200)),"",VLOOKUP(C200,Deflatores!G$4:H$38,2,FALSE)*H200+VLOOKUP(C200,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M200" s="10"/>
       <c r="N200" s="10"/>
       <c r="O200" s="6"/>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A201" s="126"/>
-      <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
+      <c r="A201" s="126" t="s">
+        <v>331</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
       <c r="F201" s="8" t="str">
         <f t="shared" si="372"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G201" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H201" s="5" t="str">
+        <v>CEA</v>
+      </c>
+      <c r="H201" s="5">
         <f t="shared" si="373"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I201" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J201" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K201" s="9" t="str">
+        <v>CEI</v>
+      </c>
+      <c r="K201" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L201" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="L201" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B201,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B201,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C201),ISBLANK(B201)),"",VLOOKUP(C201,Deflatores!G$4:H$38,2,FALSE)*H201+VLOOKUP(C201,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M201" s="10"/>
       <c r="N201" s="10"/>
       <c r="O201" s="6"/>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A202" s="128"/>
-      <c r="B202" s="4"/>
-      <c r="C202" s="4"/>
+      <c r="A202" s="126" t="s">
+        <v>330</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
       <c r="F202" s="8" t="str">
         <f t="shared" si="372"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G202" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H202" s="5" t="str">
+        <v>CEA</v>
+      </c>
+      <c r="H202" s="5">
         <f t="shared" si="373"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I202" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J202" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K202" s="9" t="str">
+        <v>CEI</v>
+      </c>
+      <c r="K202" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L202" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="L202" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B202,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B202,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C202),ISBLANK(B202)),"",VLOOKUP(C202,Deflatores!G$4:H$38,2,FALSE)*H202+VLOOKUP(C202,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M202" s="10"/>
       <c r="N202" s="10"/>
       <c r="O202" s="6"/>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A203" s="126"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
+      <c r="A203" s="126" t="s">
+        <v>332</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
       <c r="F203" s="8" t="str">
         <f t="shared" si="372"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G203" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H203" s="5" t="str">
+        <v>SEA</v>
+      </c>
+      <c r="H203" s="5">
         <f t="shared" si="373"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I203" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J203" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K203" s="9" t="str">
+        <v>SEI</v>
+      </c>
+      <c r="K203" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L203" s="9" t="str">
+        <v>5</v>
+      </c>
+      <c r="L203" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B203,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B203,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C203),ISBLANK(B203)),"",VLOOKUP(C203,Deflatores!G$4:H$38,2,FALSE)*H203+VLOOKUP(C203,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="M203" s="10"/>
       <c r="N203" s="10"/>
@@ -18228,7 +17795,9 @@
       <c r="O204" s="6"/>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A205" s="126"/>
+      <c r="A205" s="128" t="s">
+        <v>333</v>
+      </c>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="7"/>
@@ -18266,152 +17835,176 @@
       <c r="O205" s="6"/>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A206" s="126"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
+      <c r="A206" s="126" t="s">
+        <v>328</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
       <c r="F206" s="8" t="str">
         <f t="shared" si="372"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G206" s="7" t="str">
         <f t="shared" ref="G206:G269" si="380">CONCATENATE(B206,I206)</f>
-        <v/>
-      </c>
-      <c r="H206" s="5" t="str">
+        <v>SEA</v>
+      </c>
+      <c r="H206" s="5">
         <f t="shared" si="373"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I206" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J206" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K206" s="9" t="str">
+        <v>SEI</v>
+      </c>
+      <c r="K206" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L206" s="9" t="str">
+        <v>5</v>
+      </c>
+      <c r="L206" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B206,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B206,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C206),ISBLANK(B206)),"",VLOOKUP(C206,Deflatores!G$4:H$38,2,FALSE)*H206+VLOOKUP(C206,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="M206" s="10"/>
       <c r="N206" s="10"/>
       <c r="O206" s="6"/>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A207" s="128"/>
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
+      <c r="A207" s="126" t="s">
+        <v>327</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
       <c r="F207" s="8" t="str">
         <f t="shared" si="372"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G207" s="7" t="str">
         <f t="shared" si="380"/>
-        <v/>
-      </c>
-      <c r="H207" s="5" t="str">
+        <v>SEA</v>
+      </c>
+      <c r="H207" s="5">
         <f t="shared" si="373"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I207" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J207" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K207" s="9" t="str">
+        <v>SEI</v>
+      </c>
+      <c r="K207" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L207" s="9" t="str">
+        <v>5</v>
+      </c>
+      <c r="L207" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B207,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B207,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C207),ISBLANK(B207)),"",VLOOKUP(C207,Deflatores!G$4:H$38,2,FALSE)*H207+VLOOKUP(C207,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="M207" s="10"/>
       <c r="N207" s="10"/>
       <c r="O207" s="6"/>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A208" s="126"/>
-      <c r="B208" s="4"/>
-      <c r="C208" s="4"/>
+      <c r="A208" s="126" t="s">
+        <v>329</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
       <c r="F208" s="8" t="str">
         <f t="shared" si="372"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G208" s="7" t="str">
         <f t="shared" si="380"/>
-        <v/>
-      </c>
-      <c r="H208" s="5" t="str">
+        <v>CEA</v>
+      </c>
+      <c r="H208" s="5">
         <f t="shared" si="373"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I208" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J208" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K208" s="9" t="str">
+        <v>CEI</v>
+      </c>
+      <c r="K208" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L208" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="L208" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B208,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B208,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C208),ISBLANK(B208)),"",VLOOKUP(C208,Deflatores!G$4:H$38,2,FALSE)*H208+VLOOKUP(C208,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M208" s="10"/>
       <c r="N208" s="10"/>
       <c r="O208" s="6"/>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A209" s="126"/>
-      <c r="B209" s="4"/>
-      <c r="C209" s="4"/>
+      <c r="A209" s="126" t="s">
+        <v>334</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
       <c r="F209" s="8" t="str">
         <f t="shared" si="372"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G209" s="7" t="str">
         <f t="shared" si="380"/>
-        <v/>
-      </c>
-      <c r="H209" s="5" t="str">
+        <v>CEA</v>
+      </c>
+      <c r="H209" s="5">
         <f t="shared" si="373"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I209" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J209" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K209" s="9" t="str">
+        <v>CEI</v>
+      </c>
+      <c r="K209" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L209" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="L209" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B209,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B209,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C209),ISBLANK(B209)),"",VLOOKUP(C209,Deflatores!G$4:H$38,2,FALSE)*H209+VLOOKUP(C209,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M209" s="10"/>
       <c r="N209" s="10"/>
@@ -18456,7 +18049,9 @@
       <c r="O210" s="6"/>
     </row>
     <row r="211" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="126"/>
+      <c r="A211" s="128" t="s">
+        <v>335</v>
+      </c>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="7"/>
@@ -18493,191 +18088,221 @@
       <c r="N211" s="10"/>
       <c r="O211" s="6"/>
     </row>
-    <row r="212" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="126"/>
-      <c r="B212" s="4"/>
-      <c r="C212" s="4"/>
+    <row r="212" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="126" t="s">
+        <v>336</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
       <c r="F212" s="8" t="str">
         <f t="shared" si="372"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G212" s="7" t="str">
         <f t="shared" si="380"/>
-        <v/>
-      </c>
-      <c r="H212" s="5" t="str">
+        <v>CEA</v>
+      </c>
+      <c r="H212" s="5">
         <f t="shared" si="373"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I212" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J212" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K212" s="9" t="str">
+        <v>CEI</v>
+      </c>
+      <c r="K212" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L212" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="L212" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B212,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B212,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C212),ISBLANK(B212)),"",VLOOKUP(C212,Deflatores!G$4:H$38,2,FALSE)*H212+VLOOKUP(C212,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M212" s="10"/>
       <c r="N212" s="10"/>
       <c r="O212" s="6"/>
     </row>
     <row r="213" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="126"/>
-      <c r="B213" s="4"/>
-      <c r="C213" s="4"/>
+      <c r="A213" s="126" t="s">
+        <v>337</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
       <c r="F213" s="8" t="str">
         <f t="shared" si="372"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G213" s="7" t="str">
         <f t="shared" si="380"/>
-        <v/>
-      </c>
-      <c r="H213" s="5" t="str">
+        <v>EEA</v>
+      </c>
+      <c r="H213" s="5">
         <f t="shared" si="373"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I213" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J213" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K213" s="9" t="str">
+        <v>EEI</v>
+      </c>
+      <c r="K213" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L213" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="L213" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B213,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B213,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C213),ISBLANK(B213)),"",VLOOKUP(C213,Deflatores!G$4:H$38,2,FALSE)*H213+VLOOKUP(C213,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M213" s="10"/>
       <c r="N213" s="10"/>
       <c r="O213" s="6"/>
     </row>
     <row r="214" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="126"/>
-      <c r="B214" s="4"/>
-      <c r="C214" s="4"/>
+      <c r="A214" s="126" t="s">
+        <v>338</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
       <c r="F214" s="8" t="str">
         <f t="shared" si="372"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G214" s="7" t="str">
         <f t="shared" si="380"/>
-        <v/>
-      </c>
-      <c r="H214" s="5" t="str">
+        <v>EEA</v>
+      </c>
+      <c r="H214" s="5">
         <f t="shared" si="373"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I214" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J214" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K214" s="9" t="str">
+        <v>EEI</v>
+      </c>
+      <c r="K214" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L214" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="L214" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B214,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B214,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C214),ISBLANK(B214)),"",VLOOKUP(C214,Deflatores!G$4:H$38,2,FALSE)*H214+VLOOKUP(C214,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M214" s="10"/>
       <c r="N214" s="10"/>
       <c r="O214" s="6"/>
     </row>
     <row r="215" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="128"/>
-      <c r="B215" s="4"/>
-      <c r="C215" s="4"/>
+      <c r="A215" s="126" t="s">
+        <v>339</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
       <c r="F215" s="8" t="str">
         <f t="shared" ref="F215:F278" si="381">IF(ISBLANK(B215),"",IF(I215="L","Baixa",IF(I215="A","Média",IF(I215="","","Alta"))))</f>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G215" s="7" t="str">
         <f t="shared" si="380"/>
-        <v/>
-      </c>
-      <c r="H215" s="5" t="str">
+        <v>EEA</v>
+      </c>
+      <c r="H215" s="5">
         <f t="shared" ref="H215:H278" si="382">IF(ISBLANK(B215),"",IF(B215="ALI",IF(I215="L",7,IF(I215="A",10,15)),IF(B215="AIE",IF(I215="L",5,IF(I215="A",7,10)),IF(B215="SE",IF(I215="L",4,IF(I215="A",5,7)),IF(OR(B215="EE",B215="CE"),IF(I215="L",3,IF(I215="A",4,6)),0)))))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I215" s="122" t="str">
         <f t="shared" si="377"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J215" s="7" t="str">
         <f t="shared" si="378"/>
-        <v/>
-      </c>
-      <c r="K215" s="9" t="str">
+        <v>EEI</v>
+      </c>
+      <c r="K215" s="9">
         <f t="shared" si="379"/>
-        <v/>
-      </c>
-      <c r="L215" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="L215" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B215,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B215,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C215),ISBLANK(B215)),"",VLOOKUP(C215,Deflatores!G$4:H$38,2,FALSE)*H215+VLOOKUP(C215,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M215" s="10"/>
       <c r="N215" s="10"/>
       <c r="O215" s="6"/>
     </row>
     <row r="216" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="126"/>
-      <c r="B216" s="4"/>
-      <c r="C216" s="4"/>
+      <c r="A216" s="126" t="s">
+        <v>340</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
       <c r="F216" s="8" t="str">
         <f t="shared" si="381"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G216" s="7" t="str">
         <f t="shared" si="380"/>
-        <v/>
-      </c>
-      <c r="H216" s="5" t="str">
+        <v>CEA</v>
+      </c>
+      <c r="H216" s="5">
         <f t="shared" si="382"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I216" s="122" t="str">
         <f t="shared" ref="I216:I279" si="383">IF(OR(ISBLANK(D216),ISBLANK(E216)),IF(OR(B216="ALI",B216="AIE"),"L",IF(OR(B216="EE",B216="SE",B216="CE"),"A","")),IF(B216="EE",IF(E216&gt;=3,IF(D216&gt;=5,"H","A"),IF(E216&gt;=2,IF(D216&gt;=16,"H",IF(D216&lt;=4,"L","A")),IF(D216&lt;=15,"L","A"))),IF(OR(B216="SE",B216="CE"),IF(E216&gt;=4,IF(D216&gt;=6,"H","A"),IF(E216&gt;=2,IF(D216&gt;=20,"H",IF(D216&lt;=5,"L","A")),IF(D216&lt;=19,"L","A"))),IF(OR(B216="ALI",B216="AIE"),IF(E216&gt;=6,IF(D216&gt;=20,"H","A"),IF(E216&gt;=2,IF(D216&gt;=51,"H",IF(D216&lt;=19,"L","A")),IF(D216&lt;=50,"L","A"))),""))))</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J216" s="7" t="str">
         <f t="shared" ref="J216:J279" si="384">CONCATENATE(B216,C216)</f>
-        <v/>
-      </c>
-      <c r="K216" s="9" t="str">
+        <v>CEI</v>
+      </c>
+      <c r="K216" s="9">
         <f t="shared" ref="K216:K279" si="385">IF(OR(H216="",H216=0),L216,H216)</f>
-        <v/>
-      </c>
-      <c r="L216" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="L216" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B216,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B216,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C216),ISBLANK(B216)),"",VLOOKUP(C216,Deflatores!G$4:H$38,2,FALSE)*H216+VLOOKUP(C216,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M216" s="10"/>
       <c r="N216" s="10"/>
@@ -18722,7 +18347,9 @@
       <c r="O217" s="6"/>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A218" s="126"/>
+      <c r="A218" s="128" t="s">
+        <v>341</v>
+      </c>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="7"/>
@@ -18760,76 +18387,88 @@
       <c r="O218" s="6"/>
     </row>
     <row r="219" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="126"/>
-      <c r="B219" s="4"/>
-      <c r="C219" s="4"/>
+      <c r="A219" s="126" t="s">
+        <v>342</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
       <c r="F219" s="8" t="str">
         <f t="shared" si="381"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G219" s="7" t="str">
         <f t="shared" si="380"/>
-        <v/>
-      </c>
-      <c r="H219" s="5" t="str">
+        <v>CEA</v>
+      </c>
+      <c r="H219" s="5">
         <f t="shared" si="382"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I219" s="122" t="str">
         <f t="shared" si="383"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J219" s="7" t="str">
         <f t="shared" si="384"/>
-        <v/>
-      </c>
-      <c r="K219" s="9" t="str">
+        <v>CEI</v>
+      </c>
+      <c r="K219" s="9">
         <f t="shared" si="385"/>
-        <v/>
-      </c>
-      <c r="L219" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="L219" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B219,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B219,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C219),ISBLANK(B219)),"",VLOOKUP(C219,Deflatores!G$4:H$38,2,FALSE)*H219+VLOOKUP(C219,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M219" s="10"/>
       <c r="N219" s="10"/>
       <c r="O219" s="6"/>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A220" s="126"/>
-      <c r="B220" s="4"/>
-      <c r="C220" s="4"/>
+      <c r="A220" s="126" t="s">
+        <v>329</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
       <c r="F220" s="8" t="str">
         <f t="shared" si="381"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G220" s="7" t="str">
         <f t="shared" si="380"/>
-        <v/>
-      </c>
-      <c r="H220" s="5" t="str">
+        <v>CEA</v>
+      </c>
+      <c r="H220" s="5">
         <f t="shared" si="382"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I220" s="122" t="str">
         <f t="shared" si="383"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J220" s="7" t="str">
         <f t="shared" si="384"/>
-        <v/>
-      </c>
-      <c r="K220" s="9" t="str">
+        <v>CEI</v>
+      </c>
+      <c r="K220" s="9">
         <f t="shared" si="385"/>
-        <v/>
-      </c>
-      <c r="L220" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="L220" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B220,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B220,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C220),ISBLANK(B220)),"",VLOOKUP(C220,Deflatores!G$4:H$38,2,FALSE)*H220+VLOOKUP(C220,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M220" s="10"/>
       <c r="N220" s="10"/>
@@ -18874,7 +18513,9 @@
       <c r="O221" s="6"/>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A222" s="126"/>
+      <c r="A222" s="128" t="s">
+        <v>343</v>
+      </c>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="7"/>
@@ -18912,152 +18553,176 @@
       <c r="O222" s="6"/>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A223" s="126"/>
-      <c r="B223" s="4"/>
-      <c r="C223" s="4"/>
+      <c r="A223" s="126" t="s">
+        <v>336</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
       <c r="F223" s="8" t="str">
         <f t="shared" si="381"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G223" s="7" t="str">
         <f t="shared" si="380"/>
-        <v/>
-      </c>
-      <c r="H223" s="5" t="str">
+        <v>CEA</v>
+      </c>
+      <c r="H223" s="5">
         <f t="shared" si="382"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I223" s="122" t="str">
         <f t="shared" si="383"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J223" s="7" t="str">
         <f t="shared" si="384"/>
-        <v/>
-      </c>
-      <c r="K223" s="9" t="str">
+        <v>CEI</v>
+      </c>
+      <c r="K223" s="9">
         <f t="shared" si="385"/>
-        <v/>
-      </c>
-      <c r="L223" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="L223" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B223,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B223,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C223),ISBLANK(B223)),"",VLOOKUP(C223,Deflatores!G$4:H$38,2,FALSE)*H223+VLOOKUP(C223,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M223" s="10"/>
       <c r="N223" s="10"/>
       <c r="O223" s="6"/>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A224" s="126"/>
-      <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
+      <c r="A224" s="126" t="s">
+        <v>344</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
       <c r="F224" s="8" t="str">
         <f t="shared" si="381"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G224" s="7" t="str">
         <f t="shared" si="380"/>
-        <v/>
-      </c>
-      <c r="H224" s="5" t="str">
+        <v>EEA</v>
+      </c>
+      <c r="H224" s="5">
         <f t="shared" si="382"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I224" s="122" t="str">
         <f t="shared" si="383"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J224" s="7" t="str">
         <f t="shared" si="384"/>
-        <v/>
-      </c>
-      <c r="K224" s="9" t="str">
+        <v>EEI</v>
+      </c>
+      <c r="K224" s="9">
         <f t="shared" si="385"/>
-        <v/>
-      </c>
-      <c r="L224" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="L224" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B224,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B224,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C224),ISBLANK(B224)),"",VLOOKUP(C224,Deflatores!G$4:H$38,2,FALSE)*H224+VLOOKUP(C224,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M224" s="10"/>
       <c r="N224" s="10"/>
       <c r="O224" s="6"/>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A225" s="126"/>
-      <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
+      <c r="A225" s="126" t="s">
+        <v>329</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
       <c r="F225" s="8" t="str">
         <f t="shared" si="381"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G225" s="7" t="str">
         <f t="shared" si="380"/>
-        <v/>
-      </c>
-      <c r="H225" s="5" t="str">
+        <v>SEA</v>
+      </c>
+      <c r="H225" s="5">
         <f t="shared" si="382"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I225" s="122" t="str">
         <f t="shared" si="383"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J225" s="7" t="str">
         <f t="shared" si="384"/>
-        <v/>
-      </c>
-      <c r="K225" s="9" t="str">
+        <v>SEI</v>
+      </c>
+      <c r="K225" s="9">
         <f t="shared" si="385"/>
-        <v/>
-      </c>
-      <c r="L225" s="9" t="str">
+        <v>5</v>
+      </c>
+      <c r="L225" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B225,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B225,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C225),ISBLANK(B225)),"",VLOOKUP(C225,Deflatores!G$4:H$38,2,FALSE)*H225+VLOOKUP(C225,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="M225" s="10"/>
       <c r="N225" s="10"/>
       <c r="O225" s="6"/>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A226" s="126"/>
-      <c r="B226" s="4"/>
-      <c r="C226" s="4"/>
+      <c r="A226" s="126" t="s">
+        <v>345</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
       <c r="F226" s="8" t="str">
         <f t="shared" si="381"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G226" s="7" t="str">
         <f t="shared" si="380"/>
-        <v/>
-      </c>
-      <c r="H226" s="5" t="str">
+        <v>SEA</v>
+      </c>
+      <c r="H226" s="5">
         <f t="shared" si="382"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I226" s="122" t="str">
         <f t="shared" si="383"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J226" s="7" t="str">
         <f t="shared" si="384"/>
-        <v/>
-      </c>
-      <c r="K226" s="9" t="str">
+        <v>SEI</v>
+      </c>
+      <c r="K226" s="9">
         <f t="shared" si="385"/>
-        <v/>
-      </c>
-      <c r="L226" s="9" t="str">
+        <v>5</v>
+      </c>
+      <c r="L226" s="9">
         <f>IF(NOT(ISERROR(VLOOKUP(B226,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B226,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C226),ISBLANK(B226)),"",VLOOKUP(C226,Deflatores!G$4:H$38,2,FALSE)*H226+VLOOKUP(C226,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="M226" s="10"/>
       <c r="N226" s="10"/>
@@ -21962,7 +21627,7 @@
         <v/>
       </c>
       <c r="G303" s="7" t="str">
-        <f t="shared" ref="G210:G322" si="392">CONCATENATE(B303,I303)</f>
+        <f t="shared" ref="G303:G322" si="392">CONCATENATE(B303,I303)</f>
         <v/>
       </c>
       <c r="H303" s="5" t="str">
@@ -24998,7 +24663,7 @@
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
       <c r="F383" s="8" t="str">
-        <f t="shared" ref="F323:F391" si="400">IF(ISBLANK(B383),"",IF(I383="L","Baixa",IF(I383="A","Média",IF(I383="","","Alta"))))</f>
+        <f t="shared" ref="F383:F391" si="400">IF(ISBLANK(B383),"",IF(I383="L","Baixa",IF(I383="A","Média",IF(I383="","","Alta"))))</f>
         <v/>
       </c>
       <c r="G383" s="7" t="str">
@@ -25006,7 +24671,7 @@
         <v/>
       </c>
       <c r="H383" s="5" t="str">
-        <f t="shared" ref="H323:H391" si="401">IF(ISBLANK(B383),"",IF(B383="ALI",IF(I383="L",7,IF(I383="A",10,15)),IF(B383="AIE",IF(I383="L",5,IF(I383="A",7,10)),IF(B383="SE",IF(I383="L",4,IF(I383="A",5,7)),IF(OR(B383="EE",B383="CE"),IF(I383="L",3,IF(I383="A",4,6)),0)))))</f>
+        <f t="shared" ref="H383:H391" si="401">IF(ISBLANK(B383),"",IF(B383="ALI",IF(I383="L",7,IF(I383="A",10,15)),IF(B383="AIE",IF(I383="L",5,IF(I383="A",7,10)),IF(B383="SE",IF(I383="L",4,IF(I383="A",5,7)),IF(OR(B383="EE",B383="CE"),IF(I383="L",3,IF(I383="A",4,6)),0)))))</f>
         <v/>
       </c>
       <c r="I383" s="122" t="str">
@@ -33826,15 +33491,15 @@
         <v/>
       </c>
       <c r="I615" s="122" t="str">
-        <f t="shared" ref="I591:I654" si="429">IF(OR(ISBLANK(D615),ISBLANK(E615)),IF(OR(B615="ALI",B615="AIE"),"L",IF(OR(B615="EE",B615="SE",B615="CE"),"A","")),IF(B615="EE",IF(E615&gt;=3,IF(D615&gt;=5,"H","A"),IF(E615&gt;=2,IF(D615&gt;=16,"H",IF(D615&lt;=4,"L","A")),IF(D615&lt;=15,"L","A"))),IF(OR(B615="SE",B615="CE"),IF(E615&gt;=4,IF(D615&gt;=6,"H","A"),IF(E615&gt;=2,IF(D615&gt;=20,"H",IF(D615&lt;=5,"L","A")),IF(D615&lt;=19,"L","A"))),IF(OR(B615="ALI",B615="AIE"),IF(E615&gt;=6,IF(D615&gt;=20,"H","A"),IF(E615&gt;=2,IF(D615&gt;=51,"H",IF(D615&lt;=19,"L","A")),IF(D615&lt;=50,"L","A"))),""))))</f>
+        <f t="shared" ref="I615:I654" si="429">IF(OR(ISBLANK(D615),ISBLANK(E615)),IF(OR(B615="ALI",B615="AIE"),"L",IF(OR(B615="EE",B615="SE",B615="CE"),"A","")),IF(B615="EE",IF(E615&gt;=3,IF(D615&gt;=5,"H","A"),IF(E615&gt;=2,IF(D615&gt;=16,"H",IF(D615&lt;=4,"L","A")),IF(D615&lt;=15,"L","A"))),IF(OR(B615="SE",B615="CE"),IF(E615&gt;=4,IF(D615&gt;=6,"H","A"),IF(E615&gt;=2,IF(D615&gt;=20,"H",IF(D615&lt;=5,"L","A")),IF(D615&lt;=19,"L","A"))),IF(OR(B615="ALI",B615="AIE"),IF(E615&gt;=6,IF(D615&gt;=20,"H","A"),IF(E615&gt;=2,IF(D615&gt;=51,"H",IF(D615&lt;=19,"L","A")),IF(D615&lt;=50,"L","A"))),""))))</f>
         <v/>
       </c>
       <c r="J615" s="7" t="str">
-        <f t="shared" ref="J591:J654" si="430">CONCATENATE(B615,C615)</f>
+        <f t="shared" ref="J615:J654" si="430">CONCATENATE(B615,C615)</f>
         <v/>
       </c>
       <c r="K615" s="9" t="str">
-        <f t="shared" ref="K593:K656" si="431">IF(OR(H615="",H615=0),L615,H615)</f>
+        <f t="shared" ref="K615:K656" si="431">IF(OR(H615="",H615=0),L615,H615)</f>
         <v/>
       </c>
       <c r="L615" s="9" t="str">
@@ -41115,871 +40780,816 @@
     <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:C9 C124:C125 C320:C325 C237 C267:C272 C282:C317 C399:C806 C334:C368 C381:C397 C217 C232:C233 C241 C248:C249 C142 C53:C69 C149:C163">
-    <cfRule type="cellIs" dxfId="284" priority="1222" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="1222" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="1223" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="1223" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="1224" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="1224" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C326 C328:C333">
-    <cfRule type="cellIs" dxfId="281" priority="1129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="1129" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="1130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="1130" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="1131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="1131" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C318:C319">
-    <cfRule type="cellIs" dxfId="278" priority="1135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="1135" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="1136" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="1136" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="1137" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="1137" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C372">
-    <cfRule type="cellIs" dxfId="275" priority="1120" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="1120" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="1121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="1121" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="1122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="1122" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C370:C371 C374:C380">
-    <cfRule type="cellIs" dxfId="272" priority="1123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="1123" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="1124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="1124" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="1125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="1125" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C373">
-    <cfRule type="cellIs" dxfId="269" priority="1117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="1117" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="1118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="1118" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="1119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="1119" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C281">
-    <cfRule type="cellIs" dxfId="266" priority="979" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="979" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="980" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="980" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="981" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="981" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C327">
-    <cfRule type="cellIs" dxfId="263" priority="1048" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="1048" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="1049" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="1049" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="1050" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="1050" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C96">
-    <cfRule type="cellIs" dxfId="260" priority="1033" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="1033" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="1034" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="1034" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="1035" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="1035" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C176:C177 C184:C186 C189:C192">
-    <cfRule type="cellIs" dxfId="257" priority="874" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="874" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="875" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="875" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="876" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="876" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C197:C200">
-    <cfRule type="cellIs" dxfId="254" priority="871" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="C197:C203">
+    <cfRule type="cellIs" dxfId="212" priority="871" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="872" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="872" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="873" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="873" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C235">
-    <cfRule type="cellIs" dxfId="251" priority="808" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="808" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="809" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="809" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="810" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="810" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C234">
-    <cfRule type="cellIs" dxfId="248" priority="820" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="820" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="821" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="821" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="822" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="822" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C264">
-    <cfRule type="cellIs" dxfId="245" priority="790" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="790" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="791" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="791" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="792" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="792" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C276:C280">
-    <cfRule type="cellIs" dxfId="242" priority="739" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="739" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="740" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="740" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="741" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="741" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C398">
-    <cfRule type="cellIs" dxfId="239" priority="694" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="694" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="695" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="695" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="696" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="696" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C369">
-    <cfRule type="cellIs" dxfId="236" priority="655" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="655" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="656" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="656" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="657" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="657" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C126:C128">
-    <cfRule type="cellIs" dxfId="230" priority="535" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="535" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="536" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="536" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="537" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="537" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129">
-    <cfRule type="cellIs" dxfId="227" priority="532" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="532" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="533" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="533" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="534" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="534" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C143">
-    <cfRule type="cellIs" dxfId="212" priority="511" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="511" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="512" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="512" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="513" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="513" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C144:C148">
-    <cfRule type="cellIs" dxfId="209" priority="508" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="508" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="509" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="509" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="510" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="510" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C165:C175">
-    <cfRule type="cellIs" dxfId="197" priority="472" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="472" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="473" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="473" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="474" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="474" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C178:C181">
-    <cfRule type="cellIs" dxfId="191" priority="451" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="451" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="452" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="452" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="453" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="453" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187">
-    <cfRule type="cellIs" dxfId="188" priority="436" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="436" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="437" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="437" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="438" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="438" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C188">
-    <cfRule type="cellIs" dxfId="185" priority="433" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="433" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="434" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="434" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="435" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="435" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C206">
-    <cfRule type="cellIs" dxfId="182" priority="403" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="403" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="404" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="404" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="405" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="405" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164">
-    <cfRule type="cellIs" dxfId="179" priority="415" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="415" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="416" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="416" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="417" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="417" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C207">
-    <cfRule type="cellIs" dxfId="176" priority="400" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="400" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="401" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="401" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="402" stopIfTrue="1" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C214">
-    <cfRule type="cellIs" dxfId="173" priority="391" stopIfTrue="1" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="392" stopIfTrue="1" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="393" stopIfTrue="1" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C216">
-    <cfRule type="cellIs" dxfId="170" priority="388" stopIfTrue="1" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="389" stopIfTrue="1" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="390" stopIfTrue="1" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C215">
-    <cfRule type="cellIs" dxfId="167" priority="385" stopIfTrue="1" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="386" stopIfTrue="1" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="387" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="402" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C228:C230">
-    <cfRule type="cellIs" dxfId="164" priority="379" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="379" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="380" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="380" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="381" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="381" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C227">
-    <cfRule type="cellIs" dxfId="161" priority="355" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="355" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="356" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="356" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="357" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="357" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C236">
-    <cfRule type="cellIs" dxfId="158" priority="349" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="349" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="350" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="350" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="351" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="351" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C238">
-    <cfRule type="cellIs" dxfId="155" priority="346" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="346" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="347" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="347" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="348" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="348" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C240">
-    <cfRule type="cellIs" dxfId="152" priority="343" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="343" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="344" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="344" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="345" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="345" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C239">
-    <cfRule type="cellIs" dxfId="149" priority="340" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="340" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="341" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="341" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="342" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="342" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C273">
-    <cfRule type="cellIs" dxfId="146" priority="337" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="337" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="338" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="338" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="339" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="339" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C275">
-    <cfRule type="cellIs" dxfId="143" priority="334" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="334" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="335" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="335" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="336" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="336" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C243">
-    <cfRule type="cellIs" dxfId="140" priority="322" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="322" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="323" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="323" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="324" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="324" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C265">
-    <cfRule type="cellIs" dxfId="137" priority="328" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="328" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="329" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="329" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="330" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="330" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C244:C247">
-    <cfRule type="cellIs" dxfId="134" priority="319" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="319" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="320" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="320" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="321" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="321" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C250">
-    <cfRule type="cellIs" dxfId="131" priority="295" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="295" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="296" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="296" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="297" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="297" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C251">
-    <cfRule type="cellIs" dxfId="128" priority="298" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="298" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="299" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="299" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="300" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="300" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C183">
-    <cfRule type="cellIs" dxfId="125" priority="271" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="271" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="272" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="272" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="273" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="273" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C182">
-    <cfRule type="cellIs" dxfId="122" priority="268" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="268" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="269" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="269" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="270" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="270" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C71">
-    <cfRule type="cellIs" dxfId="119" priority="253" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="253" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="254" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="254" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="255" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="255" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C266">
-    <cfRule type="cellIs" dxfId="116" priority="262" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="262" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="263" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="263" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="264" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="264" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72:C80">
-    <cfRule type="cellIs" dxfId="113" priority="241" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="241" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="242" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="242" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="243" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="243" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C193:C196">
-    <cfRule type="cellIs" dxfId="104" priority="226" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="226" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="227" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="227" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="228" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="228" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C130:C141">
-    <cfRule type="cellIs" dxfId="101" priority="217" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="217" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="218" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="218" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="219" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="219" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C218:C226">
-    <cfRule type="cellIs" dxfId="98" priority="214" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="214" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="215" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="215" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="216" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="216" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C242">
-    <cfRule type="cellIs" dxfId="95" priority="208" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="208" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="209" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="209" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="210" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="210" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C231">
-    <cfRule type="cellIs" dxfId="92" priority="205" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="205" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="206" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="206" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="207" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="207" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252:C263">
-    <cfRule type="cellIs" dxfId="89" priority="202" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="202" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="203" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="203" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="204" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="204" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C274">
-    <cfRule type="cellIs" dxfId="86" priority="199" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="199" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="200" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="200" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="201" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="201" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C97:C102 C104:C109">
-    <cfRule type="cellIs" dxfId="83" priority="172" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="172" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="173" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="173" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="174" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="174" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C26">
-    <cfRule type="cellIs" dxfId="80" priority="142" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="142" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="143" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="144" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="144" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C16">
-    <cfRule type="cellIs" dxfId="77" priority="151" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="151" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="152" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="152" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="153" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="153" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C45">
-    <cfRule type="cellIs" dxfId="74" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="130" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="131" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="132" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="132" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="71" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="127" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="128" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="129" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="68" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="94" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="95" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="96" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="65" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="79" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="80" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="81" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C47">
-    <cfRule type="cellIs" dxfId="62" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="76" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="77" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="78" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C201">
-    <cfRule type="cellIs" dxfId="59" priority="46" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="C204:C205">
+    <cfRule type="cellIs" dxfId="44" priority="40" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="41" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="48" stopIfTrue="1" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C202">
-    <cfRule type="cellIs" dxfId="56" priority="43" stopIfTrue="1" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="44" stopIfTrue="1" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="45" stopIfTrue="1" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C203:C205">
-    <cfRule type="cellIs" dxfId="53" priority="40" stopIfTrue="1" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="41" stopIfTrue="1" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110:C115">
-    <cfRule type="cellIs" dxfId="50" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="37" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="39" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117:C118 C120:C123">
-    <cfRule type="cellIs" dxfId="47" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="34" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="36" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C208:C213">
-    <cfRule type="cellIs" dxfId="44" priority="31" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="C208:C216">
+    <cfRule type="cellIs" dxfId="35" priority="31" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="32" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="41" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="19" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="20" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="21" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="38" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="25" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="35" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="22" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C52">
-    <cfRule type="cellIs" dxfId="32" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="12" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="29" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C38">
-    <cfRule type="cellIs" dxfId="26" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119">
-    <cfRule type="cellIs" dxfId="23" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42027,41 +41637,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
       <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="159" t="s">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="159" t="s">
+      <c r="H2" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159" t="s">
+      <c r="I2" s="161"/>
+      <c r="J2" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="160" t="s">
+      <c r="K2" s="162" t="s">
         <v>34</v>
       </c>
     </row>
@@ -42069,35 +41679,35 @@
       <c r="A3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
       <c r="F3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="159"/>
+      <c r="G3" s="161"/>
       <c r="H3" s="24" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="159"/>
-      <c r="K3" s="160"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
       <c r="F4" s="2"/>
       <c r="G4" s="25" t="s">
         <v>41</v>
@@ -42108,23 +41718,23 @@
       <c r="I4" s="105"/>
       <c r="J4" s="106">
         <f>SUMIF(Funções!$C$8:$C$806,Deflatores!G4,Funções!$H$8:$H$806)</f>
-        <v>466</v>
+        <v>593</v>
       </c>
       <c r="K4" s="107">
         <f>IF(H4="",COUNTIF(Funções!C$8:C$806,G4)*I4,H4*J4)</f>
-        <v>466</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
       <c r="F5" s="2" t="s">
         <v>48</v>
       </c>
@@ -42148,12 +41758,12 @@
       <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
       <c r="F6" s="2" t="s">
         <v>48</v>
       </c>
@@ -42175,12 +41785,12 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="144" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
       <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
@@ -42202,12 +41812,12 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="136" t="s">
+      <c r="B8" s="144" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
       <c r="F8" s="2" t="s">
         <v>48</v>
       </c>
@@ -42229,12 +41839,12 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="144" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
       <c r="F9" s="2" t="s">
         <v>48</v>
       </c>
@@ -42256,12 +41866,12 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
       <c r="F10" s="2" t="s">
         <v>53</v>
       </c>
@@ -42283,12 +41893,12 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
       <c r="F11" s="2" t="s">
         <v>56</v>
       </c>
@@ -42310,12 +41920,12 @@
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
       <c r="F12" s="2" t="s">
         <v>56</v>
       </c>
@@ -42337,12 +41947,12 @@
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="136" t="s">
+      <c r="B13" s="144" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
       <c r="F13" s="2" t="s">
         <v>56</v>
       </c>
@@ -42364,12 +41974,12 @@
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="144" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
       <c r="F14" s="2" t="s">
         <v>56</v>
       </c>
@@ -42391,12 +42001,12 @@
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="136" t="s">
+      <c r="B15" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
       <c r="F15" s="2" t="s">
         <v>56</v>
       </c>
@@ -42418,12 +42028,12 @@
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="144" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
       <c r="F16" s="2" t="s">
         <v>63</v>
       </c>
@@ -42445,12 +42055,12 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="136" t="s">
+      <c r="B17" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
       <c r="F17" s="2" t="s">
         <v>65</v>
       </c>
@@ -42472,12 +42082,12 @@
     </row>
     <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="144" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
       <c r="F18" s="2" t="s">
         <v>65</v>
       </c>
@@ -42499,12 +42109,12 @@
     </row>
     <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="B19" s="136" t="s">
+      <c r="B19" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
       <c r="F19" s="2" t="s">
         <v>67</v>
       </c>
@@ -42526,12 +42136,12 @@
     </row>
     <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-      <c r="B20" s="136" t="s">
+      <c r="B20" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
       <c r="F20" s="2" t="s">
         <v>70</v>
       </c>
@@ -42553,12 +42163,12 @@
     </row>
     <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
       <c r="F21" s="2" t="s">
         <v>73</v>
       </c>
@@ -42580,12 +42190,12 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="136" t="s">
+      <c r="B22" s="144" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
       <c r="F22" s="2" t="s">
         <v>76</v>
       </c>
@@ -42607,12 +42217,12 @@
     </row>
     <row r="23" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="164" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="163"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="166"/>
       <c r="F23" s="103" t="s">
         <v>78</v>
       </c>
@@ -42634,12 +42244,12 @@
     </row>
     <row r="24" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
-      <c r="B24" s="161" t="s">
+      <c r="B24" s="164" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="162"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="163"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="166"/>
       <c r="F24" s="103" t="s">
         <v>78</v>
       </c>
@@ -42661,12 +42271,12 @@
     </row>
     <row r="25" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
-      <c r="B25" s="164" t="s">
+      <c r="B25" s="167" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="136"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="136"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
       <c r="F25" s="103" t="s">
         <v>78</v>
       </c>
@@ -42688,12 +42298,12 @@
     </row>
     <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="B26" s="136" t="s">
+      <c r="B26" s="144" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="136"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
       <c r="F26" s="2" t="s">
         <v>81</v>
       </c>
@@ -42715,12 +42325,12 @@
     </row>
     <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
-      <c r="B27" s="136" t="s">
+      <c r="B27" s="144" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
       <c r="F27" s="2" t="s">
         <v>81</v>
       </c>
@@ -42742,12 +42352,12 @@
     </row>
     <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
-      <c r="B28" s="136" t="s">
+      <c r="B28" s="144" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="136"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
       <c r="F28" s="2" t="s">
         <v>81</v>
       </c>
@@ -42769,12 +42379,12 @@
     </row>
     <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-      <c r="B29" s="136" t="s">
+      <c r="B29" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
       <c r="F29" s="2" t="s">
         <v>86</v>
       </c>
@@ -42796,12 +42406,12 @@
     </row>
     <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="136" t="s">
+      <c r="B30" s="144" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="136"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
       <c r="F30" s="2" t="s">
         <v>89</v>
       </c>
@@ -42823,12 +42433,12 @@
     </row>
     <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="136" t="s">
+      <c r="B31" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
       <c r="F31" s="2" t="s">
         <v>92</v>
       </c>
@@ -42958,12 +42568,12 @@
     </row>
     <row r="36" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="136" t="s">
+      <c r="B36" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="136"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="136"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
       <c r="F36" s="2" t="s">
         <v>95</v>
       </c>
@@ -42985,10 +42595,10 @@
     </row>
     <row r="37" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="136"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="136"/>
+      <c r="B37" s="144"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
       <c r="F37" s="2"/>
       <c r="G37" s="25" t="s">
         <v>97</v>
@@ -43009,10 +42619,10 @@
     </row>
     <row r="38" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" s="136"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
       <c r="F38" s="2"/>
       <c r="G38" s="25" t="s">
         <v>97</v>
@@ -43048,25 +42658,25 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="158" t="s">
+      <c r="A40" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="158"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="158"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="159" t="s">
+      <c r="B40" s="163"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
+      <c r="E40" s="163"/>
+      <c r="F40" s="163"/>
+      <c r="G40" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="H40" s="159" t="s">
+      <c r="H40" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="I40" s="159"/>
-      <c r="J40" s="159" t="s">
+      <c r="I40" s="161"/>
+      <c r="J40" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="K40" s="160" t="s">
+      <c r="K40" s="162" t="s">
         <v>34</v>
       </c>
       <c r="L40" s="19" t="s">
@@ -43077,42 +42687,42 @@
       <c r="A41" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="159" t="s">
+      <c r="B41" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="159"/>
+      <c r="C41" s="161"/>
+      <c r="D41" s="161"/>
+      <c r="E41" s="161"/>
       <c r="F41" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="159"/>
-      <c r="H41" s="159"/>
-      <c r="I41" s="159"/>
-      <c r="J41" s="159"/>
-      <c r="K41" s="160"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="161"/>
+      <c r="J41" s="161"/>
+      <c r="K41" s="162"/>
       <c r="L41" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
-      <c r="B42" s="136" t="s">
+      <c r="B42" s="144" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="136"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="136"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="144"/>
       <c r="F42" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G42" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="H42" s="165">
+      <c r="H42" s="158">
         <v>0.6</v>
       </c>
-      <c r="I42" s="165"/>
+      <c r="I42" s="158"/>
       <c r="J42" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G42)</f>
         <v>0</v>
@@ -43128,22 +42738,22 @@
     </row>
     <row r="43" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
-      <c r="B43" s="136" t="s">
+      <c r="B43" s="144" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="136"/>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="144"/>
       <c r="F43" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G43" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="H43" s="165">
+      <c r="H43" s="158">
         <v>0.6</v>
       </c>
-      <c r="I43" s="165"/>
+      <c r="I43" s="158"/>
       <c r="J43" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G43)</f>
         <v>0</v>
@@ -43159,20 +42769,20 @@
     </row>
     <row r="44" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
-      <c r="B44" s="136" t="s">
+      <c r="B44" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="136"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
       <c r="F44" s="2"/>
       <c r="G44" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="H44" s="165">
+      <c r="H44" s="158">
         <v>0</v>
       </c>
-      <c r="I44" s="165"/>
+      <c r="I44" s="158"/>
       <c r="J44" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G44)</f>
         <v>0</v>
@@ -43188,16 +42798,16 @@
     </row>
     <row r="45" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
-      <c r="B45" s="136"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
       <c r="F45" s="2"/>
       <c r="G45" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H45" s="165"/>
-      <c r="I45" s="165"/>
+      <c r="H45" s="158"/>
+      <c r="I45" s="158"/>
       <c r="J45" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G45)</f>
         <v>0</v>
@@ -43213,16 +42823,16 @@
     </row>
     <row r="46" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
-      <c r="B46" s="136"/>
-      <c r="C46" s="136"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="136"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
       <c r="F46" s="2"/>
       <c r="G46" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H46" s="165"/>
-      <c r="I46" s="165"/>
+      <c r="H46" s="158"/>
+      <c r="I46" s="158"/>
       <c r="J46" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G46)</f>
         <v>0</v>
@@ -43238,16 +42848,16 @@
     </row>
     <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
-      <c r="B47" s="136"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="144"/>
       <c r="F47" s="2"/>
       <c r="G47" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H47" s="165"/>
-      <c r="I47" s="165"/>
+      <c r="H47" s="158"/>
+      <c r="I47" s="158"/>
       <c r="J47" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G47)</f>
         <v>0</v>
@@ -43263,16 +42873,16 @@
     </row>
     <row r="48" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
-      <c r="B48" s="136"/>
-      <c r="C48" s="136"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
       <c r="F48" s="2"/>
       <c r="G48" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H48" s="165"/>
-      <c r="I48" s="165"/>
+      <c r="H48" s="158"/>
+      <c r="I48" s="158"/>
       <c r="J48" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G48)</f>
         <v>0</v>
@@ -43288,16 +42898,16 @@
     </row>
     <row r="49" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
-      <c r="B49" s="136"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="144"/>
       <c r="F49" s="2"/>
       <c r="G49" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H49" s="165"/>
-      <c r="I49" s="165"/>
+      <c r="H49" s="158"/>
+      <c r="I49" s="158"/>
       <c r="J49" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G49)</f>
         <v>0</v>
@@ -43313,16 +42923,16 @@
     </row>
     <row r="50" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
-      <c r="B50" s="136"/>
-      <c r="C50" s="136"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="136"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="144"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="144"/>
       <c r="F50" s="2"/>
       <c r="G50" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H50" s="165"/>
-      <c r="I50" s="165"/>
+      <c r="H50" s="158"/>
+      <c r="I50" s="158"/>
       <c r="J50" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G50)</f>
         <v>0</v>
@@ -43338,16 +42948,16 @@
     </row>
     <row r="51" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
-      <c r="B51" s="136"/>
-      <c r="C51" s="136"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="136"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="144"/>
       <c r="F51" s="2"/>
       <c r="G51" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H51" s="165"/>
-      <c r="I51" s="165"/>
+      <c r="H51" s="158"/>
+      <c r="I51" s="158"/>
       <c r="J51" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G51)</f>
         <v>0</v>
@@ -43363,16 +42973,16 @@
     </row>
     <row r="52" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
-      <c r="B52" s="136"/>
-      <c r="C52" s="136"/>
-      <c r="D52" s="136"/>
-      <c r="E52" s="136"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="144"/>
       <c r="F52" s="2"/>
       <c r="G52" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H52" s="165"/>
-      <c r="I52" s="165"/>
+      <c r="H52" s="158"/>
+      <c r="I52" s="158"/>
       <c r="J52" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G52)</f>
         <v>0</v>
@@ -43388,16 +42998,16 @@
     </row>
     <row r="53" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
-      <c r="B53" s="136"/>
-      <c r="C53" s="136"/>
-      <c r="D53" s="136"/>
-      <c r="E53" s="136"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="144"/>
       <c r="F53" s="2"/>
       <c r="G53" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H53" s="165"/>
-      <c r="I53" s="165"/>
+      <c r="H53" s="158"/>
+      <c r="I53" s="158"/>
       <c r="J53" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G53)</f>
         <v>0</v>
@@ -43413,16 +43023,16 @@
     </row>
     <row r="54" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A54" s="27"/>
-      <c r="B54" s="136"/>
-      <c r="C54" s="136"/>
-      <c r="D54" s="136"/>
-      <c r="E54" s="136"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="144"/>
       <c r="F54" s="2"/>
       <c r="G54" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H54" s="165"/>
-      <c r="I54" s="165"/>
+      <c r="H54" s="158"/>
+      <c r="I54" s="158"/>
       <c r="J54" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G54)</f>
         <v>0</v>
@@ -43438,16 +43048,16 @@
     </row>
     <row r="55" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
-      <c r="B55" s="136"/>
-      <c r="C55" s="136"/>
-      <c r="D55" s="136"/>
-      <c r="E55" s="136"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="144"/>
       <c r="F55" s="2"/>
       <c r="G55" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H55" s="165"/>
-      <c r="I55" s="165"/>
+      <c r="H55" s="158"/>
+      <c r="I55" s="158"/>
       <c r="J55" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G55)</f>
         <v>0</v>
@@ -43463,16 +43073,16 @@
     </row>
     <row r="56" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
-      <c r="B56" s="136"/>
-      <c r="C56" s="136"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="136"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="144"/>
       <c r="F56" s="2"/>
       <c r="G56" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H56" s="165"/>
-      <c r="I56" s="165"/>
+      <c r="H56" s="158"/>
+      <c r="I56" s="158"/>
       <c r="J56" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G56)</f>
         <v>0</v>
@@ -43488,16 +43098,16 @@
     </row>
     <row r="57" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
-      <c r="B57" s="136"/>
-      <c r="C57" s="136"/>
-      <c r="D57" s="136"/>
-      <c r="E57" s="136"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="144"/>
       <c r="F57" s="2"/>
       <c r="G57" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H57" s="165"/>
-      <c r="I57" s="165"/>
+      <c r="H57" s="158"/>
+      <c r="I57" s="158"/>
       <c r="J57" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G57)</f>
         <v>0</v>
@@ -43513,16 +43123,16 @@
     </row>
     <row r="58" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
-      <c r="B58" s="136"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="136"/>
-      <c r="E58" s="136"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="144"/>
       <c r="F58" s="2"/>
       <c r="G58" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H58" s="165"/>
-      <c r="I58" s="165"/>
+      <c r="H58" s="158"/>
+      <c r="I58" s="158"/>
       <c r="J58" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G58)</f>
         <v>0</v>
@@ -43538,16 +43148,16 @@
     </row>
     <row r="59" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
-      <c r="B59" s="136"/>
-      <c r="C59" s="136"/>
-      <c r="D59" s="136"/>
-      <c r="E59" s="136"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="144"/>
       <c r="F59" s="2"/>
       <c r="G59" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H59" s="165"/>
-      <c r="I59" s="165"/>
+      <c r="H59" s="158"/>
+      <c r="I59" s="158"/>
       <c r="J59" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G59)</f>
         <v>0</v>
@@ -43563,16 +43173,16 @@
     </row>
     <row r="60" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
-      <c r="B60" s="136"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="136"/>
-      <c r="E60" s="136"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
       <c r="F60" s="2"/>
       <c r="G60" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H60" s="165"/>
-      <c r="I60" s="165"/>
+      <c r="H60" s="158"/>
+      <c r="I60" s="158"/>
       <c r="J60" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G60)</f>
         <v>0</v>
@@ -43588,16 +43198,16 @@
     </row>
     <row r="61" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A61" s="27"/>
-      <c r="B61" s="136"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="136"/>
-      <c r="E61" s="136"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="144"/>
+      <c r="E61" s="144"/>
       <c r="F61" s="2"/>
       <c r="G61" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H61" s="165"/>
-      <c r="I61" s="165"/>
+      <c r="H61" s="158"/>
+      <c r="I61" s="158"/>
       <c r="J61" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G61)</f>
         <v>0</v>
@@ -43613,16 +43223,16 @@
     </row>
     <row r="62" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
-      <c r="B62" s="136"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="136"/>
-      <c r="E62" s="136"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="144"/>
       <c r="F62" s="2"/>
       <c r="G62" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H62" s="165"/>
-      <c r="I62" s="165"/>
+      <c r="H62" s="158"/>
+      <c r="I62" s="158"/>
       <c r="J62" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G62)</f>
         <v>0</v>
@@ -43638,16 +43248,16 @@
     </row>
     <row r="63" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A63" s="27"/>
-      <c r="B63" s="136"/>
-      <c r="C63" s="136"/>
-      <c r="D63" s="136"/>
-      <c r="E63" s="136"/>
+      <c r="B63" s="144"/>
+      <c r="C63" s="144"/>
+      <c r="D63" s="144"/>
+      <c r="E63" s="144"/>
       <c r="F63" s="2"/>
       <c r="G63" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H63" s="165"/>
-      <c r="I63" s="165"/>
+      <c r="H63" s="158"/>
+      <c r="I63" s="158"/>
       <c r="J63" s="28">
         <f>COUNTIF(Funções!B$8:B$806,G63)</f>
         <v>0</v>
@@ -43663,16 +43273,16 @@
     </row>
     <row r="64" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="166"/>
-      <c r="C64" s="166"/>
-      <c r="D64" s="166"/>
-      <c r="E64" s="166"/>
+      <c r="B64" s="159"/>
+      <c r="C64" s="159"/>
+      <c r="D64" s="159"/>
+      <c r="E64" s="159"/>
       <c r="F64" s="30"/>
       <c r="G64" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H64" s="167"/>
-      <c r="I64" s="167"/>
+      <c r="H64" s="160"/>
+      <c r="I64" s="160"/>
       <c r="J64" s="32">
         <f>COUNTIF(Funções!B$8:B$806,G64)</f>
         <v>0</v>
@@ -43689,62 +43299,27 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="90">
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:E19"/>
@@ -43758,27 +43333,62 @@
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="H62:I62"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.023611111111111" bottom="1.023611111111111" header="0.51180555555555551" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="48" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -43817,58 +43427,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="138"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="138"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
+      <c r="A3" s="147"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="170" t="str">
+      <c r="A4" s="173" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Sistema de Inovação</v>
       </c>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
       <c r="F4" s="152" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v>Projeto : Sistema de Inovação</v>
@@ -43881,14 +43491,14 @@
       <c r="L4" s="152"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="170" t="str">
+      <c r="A5" s="173" t="str">
         <f>Contagem!A9&amp;" : "&amp;Contagem!F9</f>
         <v>Responsável : Jonathas Gomes Marques</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
       <c r="F5" s="152" t="str">
         <f>Contagem!A10&amp;" : "&amp;Contagem!F10</f>
         <v xml:space="preserve">Revisor : </v>
@@ -43901,14 +43511,14 @@
       <c r="L5" s="152"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="170" t="str">
+      <c r="A6" s="173" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v>Empresa : Secretaria de Estado de Planejamento e Gestão de Mato Grosso</v>
       </c>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
       <c r="F6" s="152" t="str">
         <f>"Tipo de Contagem : "&amp;Contagem!F6</f>
         <v>Tipo de Contagem : Aplicação</v>
@@ -43921,44 +43531,44 @@
       <c r="L6" s="152"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="172" t="s">
+      <c r="A7" s="169" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="172"/>
-      <c r="C7" s="173" t="s">
+      <c r="B7" s="169"/>
+      <c r="C7" s="170" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="168" t="s">
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="171" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="168" t="s">
+      <c r="H7" s="171" t="s">
         <v>122</v>
       </c>
       <c r="I7" s="69"/>
-      <c r="J7" s="168" t="s">
+      <c r="J7" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="K7" s="168"/>
-      <c r="L7" s="169" t="s">
+      <c r="K7" s="171"/>
+      <c r="L7" s="172" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="172"/>
-      <c r="B8" s="172"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
+      <c r="A8" s="169"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
       <c r="I8" s="70"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="169"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="172"/>
     </row>
     <row r="9" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
@@ -44002,7 +43612,7 @@
       </c>
       <c r="K10" s="55">
         <f>SUMIF(Funções!$J$8:$J$806,"EE"&amp;Deflatores!G4,Funções!$L$8:$L$806)</f>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="L10" s="56"/>
     </row>
@@ -44011,7 +43621,7 @@
       <c r="B11" s="51"/>
       <c r="C11" s="52">
         <f>COUNTIF(Funções!G8:G806,"EEA")</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="53" t="s">
@@ -44022,7 +43632,7 @@
       </c>
       <c r="G11" s="52">
         <f>C11*4</f>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H11" s="51"/>
       <c r="I11" s="34"/>
@@ -44087,7 +43697,7 @@
       </c>
       <c r="C14" s="52">
         <f>SUM(C10:C12)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D14" s="51"/>
       <c r="E14" s="51"/>
@@ -44096,21 +43706,21 @@
       </c>
       <c r="G14" s="52">
         <f>SUM(G10:G12)</f>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H14" s="34">
         <f>IF($G$45&lt;&gt;0,G14/$G$45,"")</f>
-        <v>0.25751072961373389</v>
+        <v>0.23608768971332209</v>
       </c>
       <c r="I14" s="61"/>
       <c r="J14" s="54"/>
       <c r="K14" s="55">
         <f>SUM(K10:K13)</f>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="L14" s="36">
         <f>IF('Sumário 2'!L11&lt;&gt;0,K14/'Sumário 2'!L11,"")</f>
-        <v>0.25751072961373389</v>
+        <v>0.23608768971332209</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -44169,7 +43779,7 @@
       </c>
       <c r="K17" s="64">
         <f>SUMIF(Funções!$J$8:$J$806,"SE"&amp;Deflatores!$G$4,Funções!$L$8:$L$806)</f>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="L17" s="56"/>
     </row>
@@ -44178,7 +43788,7 @@
       <c r="B18" s="51"/>
       <c r="C18" s="54">
         <f>COUNTIF(Funções!G8:G806,"SEA")</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D18" s="51"/>
       <c r="E18" s="53" t="s">
@@ -44189,7 +43799,7 @@
       </c>
       <c r="G18" s="54">
         <f>C18*5</f>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H18" s="51"/>
       <c r="I18" s="51"/>
@@ -44254,7 +43864,7 @@
       </c>
       <c r="C21" s="52">
         <f>SUM(C17:C19)</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D21" s="51"/>
       <c r="E21" s="51"/>
@@ -44263,21 +43873,21 @@
       </c>
       <c r="G21" s="52">
         <f>SUM(G17:G19)</f>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H21" s="34">
         <f>IF($G$45&lt;&gt;0,G21/$G$45,"")</f>
-        <v>0.12875536480686695</v>
+        <v>0.19392917369308602</v>
       </c>
       <c r="I21" s="61"/>
       <c r="J21" s="54"/>
       <c r="K21" s="55">
         <f>SUM(K17:K20)</f>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="L21" s="36">
         <f>IF('Sumário 2'!L11&lt;&gt;0,K21/'Sumário 2'!L11,"")</f>
-        <v>0.12875536480686695</v>
+        <v>0.19392917369308602</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -44336,7 +43946,7 @@
       </c>
       <c r="K24" s="55">
         <f>SUMIF(Funções!$J$8:$J$806,"CE"&amp;Deflatores!$G$4,Funções!$L$8:$L$806)</f>
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="L24" s="56"/>
     </row>
@@ -44345,7 +43955,7 @@
       <c r="B25" s="51"/>
       <c r="C25" s="52">
         <f>COUNTIF(Funções!G8:G806,"CEA")</f>
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="53" t="s">
@@ -44356,7 +43966,7 @@
       </c>
       <c r="G25" s="52">
         <f>C25*4</f>
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="H25" s="51"/>
       <c r="I25" s="51"/>
@@ -44421,7 +44031,7 @@
       </c>
       <c r="C28" s="52">
         <f>SUM(C24:C26)</f>
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D28" s="51"/>
       <c r="E28" s="51"/>
@@ -44430,21 +44040,21 @@
       </c>
       <c r="G28" s="52">
         <f>SUM(G24:G26)</f>
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="H28" s="34">
         <f>IF($G$45&lt;&gt;0,G28/$G$45,"")</f>
-        <v>0.47210300429184548</v>
+        <v>0.45868465430016864</v>
       </c>
       <c r="I28" s="61"/>
       <c r="J28" s="54"/>
       <c r="K28" s="55">
         <f>SUM(K24:K27)</f>
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="L28" s="36">
         <f>IF('Sumário 2'!L11&lt;&gt;0,K28/'Sumário 2'!L11,"")</f>
-        <v>0.47210300429184548</v>
+        <v>0.45868465430016864</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -44601,7 +44211,7 @@
       </c>
       <c r="H35" s="34">
         <f>IF($G$45&lt;&gt;0,G35/$G$45,"")</f>
-        <v>0.12017167381974249</v>
+        <v>9.4435075885328831E-2</v>
       </c>
       <c r="I35" s="61"/>
       <c r="J35" s="54"/>
@@ -44611,7 +44221,7 @@
       </c>
       <c r="L35" s="36">
         <f>IF('Sumário 2'!L11&lt;&gt;0,K35/'Sumário 2'!L11,"")</f>
-        <v>0.12017167381974249</v>
+        <v>9.4435075885328831E-2</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -44768,7 +44378,7 @@
       </c>
       <c r="H42" s="34">
         <f>IF($G$45&lt;&gt;0,G42/$G$45,"")</f>
-        <v>2.1459227467811159E-2</v>
+        <v>1.6863406408094434E-2</v>
       </c>
       <c r="I42" s="61"/>
       <c r="J42" s="54"/>
@@ -44778,7 +44388,7 @@
       </c>
       <c r="L42" s="36">
         <f>IF('Sumário 2'!L11&lt;&gt;0,K42/'Sumário 2'!L11,"")</f>
-        <v>2.1459227467811159E-2</v>
+        <v>1.6863406408094434E-2</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -44811,16 +44421,16 @@
     </row>
     <row r="45" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="57"/>
-      <c r="B45" s="171" t="s">
+      <c r="B45" s="168" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="171"/>
-      <c r="D45" s="171"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="171"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="168"/>
+      <c r="F45" s="168"/>
       <c r="G45" s="52">
         <f>SUM(G14+G21+G28+G35+G42)</f>
-        <v>466</v>
+        <v>593</v>
       </c>
       <c r="H45" s="51"/>
       <c r="I45" s="51"/>
@@ -44830,16 +44440,16 @@
     </row>
     <row r="46" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="57"/>
-      <c r="B46" s="171" t="s">
+      <c r="B46" s="168" t="s">
         <v>137</v>
       </c>
-      <c r="C46" s="171"/>
-      <c r="D46" s="171"/>
-      <c r="E46" s="171"/>
-      <c r="F46" s="171"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
+      <c r="E46" s="168"/>
+      <c r="F46" s="168"/>
       <c r="G46" s="52">
         <f>(C10+C11+C12)*4+(C17+C18+C19)*5+(C24+C25+C26)*4+(C31+C32+C33)*7+(C38+C39+C40)*5</f>
-        <v>466</v>
+        <v>593</v>
       </c>
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
@@ -44849,13 +44459,13 @@
     </row>
     <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A47" s="57"/>
-      <c r="B47" s="171" t="s">
+      <c r="B47" s="168" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="171"/>
-      <c r="D47" s="171"/>
-      <c r="E47" s="171"/>
-      <c r="F47" s="171"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
+      <c r="E47" s="168"/>
+      <c r="F47" s="168"/>
       <c r="G47" s="52">
         <f>(C31+C32+C33)*35+(C38+C39+C40)*15</f>
         <v>310</v>
@@ -44939,11 +44549,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="J7:K8"/>
@@ -44955,6 +44560,11 @@
     <mergeCell ref="F5:L5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="F6:L6"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:F8"/>
   </mergeCells>
   <pageMargins left="0.51180555555555551" right="0.51180555555555551" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.31527777777777777"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -44994,61 +44604,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="147" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="138"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="138"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
+      <c r="A3" s="147"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="170" t="str">
+      <c r="A4" s="173" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Sistema de Inovação</v>
       </c>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
       <c r="F4" s="152" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v>Projeto : Sistema de Inovação</v>
@@ -45062,14 +44672,14 @@
       <c r="M4" s="152"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="174" t="str">
+      <c r="A5" s="175" t="str">
         <f>Contagem!A9&amp;" : "&amp;Contagem!F9</f>
         <v>Responsável : Jonathas Gomes Marques</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
       <c r="F5" s="152" t="str">
         <f>Contagem!A10&amp;" : "&amp;Contagem!F10</f>
         <v xml:space="preserve">Revisor : </v>
@@ -45083,14 +44693,14 @@
       <c r="M5" s="152"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="174" t="str">
+      <c r="A6" s="175" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v>Empresa : Secretaria de Estado de Planejamento e Gestão de Mato Grosso</v>
       </c>
-      <c r="B6" s="174"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
       <c r="F6" s="152" t="str">
         <f>"Tipo de Contagem : "&amp;Contagem!F6</f>
         <v>Tipo de Contagem : Aplicação</v>
@@ -45120,14 +44730,14 @@
     </row>
     <row r="8" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
-      <c r="B8" s="175"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="175"/>
-      <c r="I8" s="175"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="176"/>
       <c r="J8" s="61"/>
       <c r="K8" s="61"/>
       <c r="L8" s="61"/>
@@ -45135,11 +44745,11 @@
     </row>
     <row r="9" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A9" s="84"/>
-      <c r="B9" s="176" t="s">
+      <c r="B9" s="177" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="176"/>
-      <c r="D9" s="176"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
       <c r="E9" s="37" t="s">
         <v>101</v>
       </c>
@@ -45164,22 +44774,22 @@
     </row>
     <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="84"/>
-      <c r="B10" s="136" t="str">
+      <c r="B10" s="144" t="str">
         <f>""&amp;Deflatores!B4</f>
         <v>Inclusão</v>
       </c>
-      <c r="C10" s="136"/>
+      <c r="C10" s="144"/>
       <c r="D10" s="25" t="str">
         <f>""&amp;Deflatores!G4</f>
         <v>I</v>
       </c>
       <c r="E10" s="108">
         <f>IF(D10="","",COUNTIF(Funções!C$8:C$806,D10))</f>
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="F10" s="109">
         <f>SUMIF(Funções!$C$8:$C$806,Deflatores!G4,Funções!$H$8:$H$806)</f>
-        <v>466</v>
+        <v>593</v>
       </c>
       <c r="G10" s="110">
         <f>IF(ISBLANK(Deflatores!H4),"",Deflatores!H4)</f>
@@ -45191,7 +44801,7 @@
       </c>
       <c r="I10" s="111">
         <f>IF(F10=0,Deflatores!K4,F10*G10)</f>
-        <v>466</v>
+        <v>593</v>
       </c>
       <c r="J10" s="112">
         <f t="shared" ref="J10:J44" si="0">IF($L$11&lt;&gt;0,I10/$L$11,"")</f>
@@ -45205,11 +44815,11 @@
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="84"/>
-      <c r="B11" s="136" t="str">
+      <c r="B11" s="144" t="str">
         <f>""&amp;Deflatores!B5</f>
         <v>Alteração (sem conhecimento do Fator de Impacto)</v>
       </c>
-      <c r="C11" s="136"/>
+      <c r="C11" s="144"/>
       <c r="D11" s="25" t="str">
         <f>""&amp;Deflatores!G5</f>
         <v>A</v>
@@ -45241,17 +44851,17 @@
       <c r="K11" s="96"/>
       <c r="L11" s="43">
         <f>Contagem!Q6</f>
-        <v>466</v>
+        <v>593</v>
       </c>
       <c r="M11" s="56"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="84"/>
-      <c r="B12" s="136" t="str">
+      <c r="B12" s="144" t="str">
         <f>""&amp;Deflatores!B6</f>
         <v>Exclusão</v>
       </c>
-      <c r="C12" s="136"/>
+      <c r="C12" s="144"/>
       <c r="D12" s="25" t="str">
         <f>""&amp;Deflatores!G6</f>
         <v>E</v>
@@ -45286,11 +44896,11 @@
     </row>
     <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="84"/>
-      <c r="B13" s="136" t="str">
+      <c r="B13" s="144" t="str">
         <f>""&amp;Deflatores!B7</f>
         <v>Alteração (50%) de função desenvolvida ou já alterada pela empresa atual</v>
       </c>
-      <c r="C13" s="136"/>
+      <c r="C13" s="144"/>
       <c r="D13" s="25" t="str">
         <f>""&amp;Deflatores!G7</f>
         <v>A50</v>
@@ -45327,11 +44937,11 @@
     </row>
     <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="84"/>
-      <c r="B14" s="136" t="str">
+      <c r="B14" s="144" t="str">
         <f>""&amp;Deflatores!B8</f>
         <v>Alteração (75%) de função não desenv. e ainda não alterada pela empresa atual</v>
       </c>
-      <c r="C14" s="136"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="25" t="str">
         <f>""&amp;Deflatores!G8</f>
         <v>A75</v>
@@ -45363,17 +44973,17 @@
       <c r="K14" s="61"/>
       <c r="L14" s="43">
         <f>Contagem!Q4</f>
-        <v>466</v>
+        <v>593</v>
       </c>
       <c r="M14" s="56"/>
     </row>
     <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="84"/>
-      <c r="B15" s="136" t="str">
+      <c r="B15" s="144" t="str">
         <f>""&amp;Deflatores!B9</f>
         <v>Alteração (75%+15%): o mesmo acima + redocumentar a função</v>
       </c>
-      <c r="C15" s="136"/>
+      <c r="C15" s="144"/>
       <c r="D15" s="25" t="str">
         <f>""&amp;Deflatores!G9</f>
         <v>A90</v>
@@ -45408,11 +45018,11 @@
     </row>
     <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="84"/>
-      <c r="B16" s="136" t="str">
+      <c r="B16" s="144" t="str">
         <f>""&amp;Deflatores!B10</f>
         <v>Migração de Dados</v>
       </c>
-      <c r="C16" s="136"/>
+      <c r="C16" s="144"/>
       <c r="D16" s="25" t="str">
         <f>""&amp;Deflatores!G10</f>
         <v>PMD</v>
@@ -45447,11 +45057,11 @@
     </row>
     <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="84"/>
-      <c r="B17" s="136" t="str">
+      <c r="B17" s="144" t="str">
         <f>""&amp;Deflatores!B11</f>
         <v>Corretiva (sem conhecimento do Fator de Impacto)</v>
       </c>
-      <c r="C17" s="136"/>
+      <c r="C17" s="144"/>
       <c r="D17" s="25" t="str">
         <f>""&amp;Deflatores!G11</f>
         <v>COR</v>
@@ -45486,11 +45096,11 @@
     </row>
     <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="84"/>
-      <c r="B18" s="136" t="str">
+      <c r="B18" s="144" t="str">
         <f>""&amp;Deflatores!B12</f>
         <v>Corretiva (50%) - Fora da garantia (mesma empresa)</v>
       </c>
-      <c r="C18" s="136"/>
+      <c r="C18" s="144"/>
       <c r="D18" s="25" t="str">
         <f>""&amp;Deflatores!G12</f>
         <v>COR50</v>
@@ -45525,11 +45135,11 @@
     </row>
     <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="84"/>
-      <c r="B19" s="136" t="str">
+      <c r="B19" s="144" t="str">
         <f>""&amp;Deflatores!B13</f>
         <v>Corretiva (75%) - Fora da garantia (outra empresa)</v>
       </c>
-      <c r="C19" s="136"/>
+      <c r="C19" s="144"/>
       <c r="D19" s="25" t="str">
         <f>""&amp;Deflatores!G13</f>
         <v>COR75</v>
@@ -45564,11 +45174,11 @@
     </row>
     <row r="20" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="84"/>
-      <c r="B20" s="136" t="str">
+      <c r="B20" s="144" t="str">
         <f>""&amp;Deflatores!B14</f>
         <v>Corretiva (75%+15%) - Fora da garantia (outra empresa) + Redocumentação</v>
       </c>
-      <c r="C20" s="136"/>
+      <c r="C20" s="144"/>
       <c r="D20" s="25" t="str">
         <f>""&amp;Deflatores!G14</f>
         <v>COR90</v>
@@ -45603,11 +45213,11 @@
     </row>
     <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="84"/>
-      <c r="B21" s="136" t="str">
+      <c r="B21" s="144" t="str">
         <f>""&amp;Deflatores!B15</f>
         <v>Corretiva em Garantia</v>
       </c>
-      <c r="C21" s="136"/>
+      <c r="C21" s="144"/>
       <c r="D21" s="25" t="str">
         <f>""&amp;Deflatores!G15</f>
         <v>GAR</v>
@@ -45642,11 +45252,11 @@
     </row>
     <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="84"/>
-      <c r="B22" s="136" t="str">
+      <c r="B22" s="144" t="str">
         <f>""&amp;Deflatores!B16</f>
         <v>Mudança de Plataforma - Linguagem de Programação</v>
       </c>
-      <c r="C22" s="136"/>
+      <c r="C22" s="144"/>
       <c r="D22" s="25" t="str">
         <f>""&amp;Deflatores!G16</f>
         <v>MLP</v>
@@ -45681,11 +45291,11 @@
     </row>
     <row r="23" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="84"/>
-      <c r="B23" s="136" t="str">
+      <c r="B23" s="144" t="str">
         <f>""&amp;Deflatores!B17</f>
         <v>Mudança de Plataforma - Banco de Dados (outro paradigma)</v>
       </c>
-      <c r="C23" s="136"/>
+      <c r="C23" s="144"/>
       <c r="D23" s="25" t="str">
         <f>""&amp;Deflatores!G17</f>
         <v>MBO</v>
@@ -45720,11 +45330,11 @@
     </row>
     <row r="24" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="84"/>
-      <c r="B24" s="136" t="str">
+      <c r="B24" s="144" t="str">
         <f>""&amp;Deflatores!B18</f>
         <v>Mudança de Plataforma - Banco de Dados (mesmo paradigma com alterações)</v>
       </c>
-      <c r="C24" s="136"/>
+      <c r="C24" s="144"/>
       <c r="D24" s="25" t="str">
         <f>""&amp;Deflatores!G18</f>
         <v>MBM</v>
@@ -45759,11 +45369,11 @@
     </row>
     <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="84"/>
-      <c r="B25" s="136" t="str">
+      <c r="B25" s="144" t="str">
         <f>""&amp;Deflatores!B19</f>
         <v>Atualização de Versão – Linguagem de Programação</v>
       </c>
-      <c r="C25" s="136"/>
+      <c r="C25" s="144"/>
       <c r="D25" s="25" t="str">
         <f>""&amp;Deflatores!G19</f>
         <v>ALP</v>
@@ -45798,11 +45408,11 @@
     </row>
     <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="84"/>
-      <c r="B26" s="136" t="str">
+      <c r="B26" s="144" t="str">
         <f>""&amp;Deflatores!B20</f>
         <v>Atualização de Versão – Browser</v>
       </c>
-      <c r="C26" s="136"/>
+      <c r="C26" s="144"/>
       <c r="D26" s="25" t="str">
         <f>""&amp;Deflatores!G20</f>
         <v>AVB</v>
@@ -45837,11 +45447,11 @@
     </row>
     <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="84"/>
-      <c r="B27" s="136" t="str">
+      <c r="B27" s="144" t="str">
         <f>""&amp;Deflatores!B21</f>
         <v>Atualização de Versão – Banco de Dados</v>
       </c>
-      <c r="C27" s="136"/>
+      <c r="C27" s="144"/>
       <c r="D27" s="25" t="str">
         <f>""&amp;Deflatores!G21</f>
         <v>ABD</v>
@@ -45876,11 +45486,11 @@
     </row>
     <row r="28" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="84"/>
-      <c r="B28" s="136" t="str">
+      <c r="B28" s="144" t="str">
         <f>""&amp;Deflatores!B22</f>
         <v>Manutenção Cosmética</v>
       </c>
-      <c r="C28" s="136"/>
+      <c r="C28" s="144"/>
       <c r="D28" s="25" t="str">
         <f>""&amp;Deflatores!G22</f>
         <v>COS</v>
@@ -45915,12 +45525,12 @@
     </row>
     <row r="29" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="84"/>
-      <c r="B29" s="161" t="str">
+      <c r="B29" s="164" t="str">
         <f>""&amp;Deflatores!B23</f>
         <v>Adaptação em Funcionalidades sem Alteração de Requisitos Funcionais
 (sem conhecimento do Fator de Impacto)</v>
       </c>
-      <c r="C29" s="163"/>
+      <c r="C29" s="166"/>
       <c r="D29" s="25" t="str">
         <f>""&amp;Deflatores!G23</f>
         <v>ARN</v>
@@ -45955,12 +45565,12 @@
     </row>
     <row r="30" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="84"/>
-      <c r="B30" s="161" t="str">
+      <c r="B30" s="164" t="str">
         <f>""&amp;Deflatores!B24</f>
         <v>Adaptação em Funcionalidades sem Alteração de Requisitos Funcionais (50%)
 (em função desenvolvida ou já alterada pela empresa atual)</v>
       </c>
-      <c r="C30" s="163"/>
+      <c r="C30" s="166"/>
       <c r="D30" s="25" t="str">
         <f>""&amp;Deflatores!G24</f>
         <v>ARN50</v>
@@ -45995,12 +45605,12 @@
     </row>
     <row r="31" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="84"/>
-      <c r="B31" s="161" t="str">
+      <c r="B31" s="164" t="str">
         <f>""&amp;Deflatores!B25</f>
         <v>Adaptação em Funcionalidades sem Alteração de Requisitos Funcionais (75%)
 (em função não desenvolvida e ainda não alterada pela empresa atual)</v>
       </c>
-      <c r="C31" s="163"/>
+      <c r="C31" s="166"/>
       <c r="D31" s="25" t="str">
         <f>""&amp;Deflatores!G25</f>
         <v>ARN75</v>
@@ -46035,11 +45645,11 @@
     </row>
     <row r="32" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="84"/>
-      <c r="B32" s="136" t="str">
+      <c r="B32" s="144" t="str">
         <f>""&amp;Deflatores!B26</f>
         <v>Atualização de Dados sem Consulta Prévia</v>
       </c>
-      <c r="C32" s="136"/>
+      <c r="C32" s="144"/>
       <c r="D32" s="25" t="str">
         <f>""&amp;Deflatores!G26</f>
         <v>ADS</v>
@@ -46074,11 +45684,11 @@
     </row>
     <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="84"/>
-      <c r="B33" s="136" t="str">
+      <c r="B33" s="144" t="str">
         <f>""&amp;Deflatores!B27</f>
         <v>Consulta Prévia sem Atualização</v>
       </c>
-      <c r="C33" s="136"/>
+      <c r="C33" s="144"/>
       <c r="D33" s="25" t="str">
         <f>""&amp;Deflatores!G27</f>
         <v>CPA</v>
@@ -46113,11 +45723,11 @@
     </row>
     <row r="34" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="84"/>
-      <c r="B34" s="136" t="str">
+      <c r="B34" s="144" t="str">
         <f>""&amp;Deflatores!B28</f>
         <v>Atualização de Dados com Consulta Prévia</v>
       </c>
-      <c r="C34" s="136"/>
+      <c r="C34" s="144"/>
       <c r="D34" s="25" t="str">
         <f>""&amp;Deflatores!G28</f>
         <v>ADC</v>
@@ -46152,11 +45762,11 @@
     </row>
     <row r="35" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="84"/>
-      <c r="B35" s="136" t="str">
+      <c r="B35" s="144" t="str">
         <f>""&amp;Deflatores!B29</f>
         <v>Apuração Especial – Geração de Relatórios</v>
       </c>
-      <c r="C35" s="136"/>
+      <c r="C35" s="144"/>
       <c r="D35" s="25" t="str">
         <f>""&amp;Deflatores!G29</f>
         <v>AGR</v>
@@ -46191,11 +45801,11 @@
     </row>
     <row r="36" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="84"/>
-      <c r="B36" s="136" t="str">
+      <c r="B36" s="144" t="str">
         <f>""&amp;Deflatores!B30</f>
         <v>Apuração Especial – Reexecução</v>
       </c>
-      <c r="C36" s="136"/>
+      <c r="C36" s="144"/>
       <c r="D36" s="25" t="str">
         <f>""&amp;Deflatores!G30</f>
         <v>AER</v>
@@ -46230,11 +45840,11 @@
     </row>
     <row r="37" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="84"/>
-      <c r="B37" s="136" t="str">
+      <c r="B37" s="144" t="str">
         <f>""&amp;Deflatores!B31</f>
         <v>Atualização de Dados</v>
       </c>
-      <c r="C37" s="136"/>
+      <c r="C37" s="144"/>
       <c r="D37" s="25" t="str">
         <f>""&amp;Deflatores!G31</f>
         <v>ATD</v>
@@ -46269,11 +45879,11 @@
     </row>
     <row r="38" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="84"/>
-      <c r="B38" s="136" t="str">
+      <c r="B38" s="144" t="str">
         <f>""&amp;Deflatores!B32</f>
         <v>Manutenção de Documentação de Sistemas Legados</v>
       </c>
-      <c r="C38" s="136"/>
+      <c r="C38" s="144"/>
       <c r="D38" s="25" t="str">
         <f>""&amp;Deflatores!G32</f>
         <v>MSL</v>
@@ -46308,11 +45918,11 @@
     </row>
     <row r="39" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="84"/>
-      <c r="B39" s="136" t="str">
+      <c r="B39" s="144" t="str">
         <f>""&amp;Deflatores!B33</f>
         <v>Verificação de Erros (Sem Documentação de Teste existente)</v>
       </c>
-      <c r="C39" s="136"/>
+      <c r="C39" s="144"/>
       <c r="D39" s="25" t="str">
         <f>""&amp;Deflatores!G33</f>
         <v>VES</v>
@@ -46347,11 +45957,11 @@
     </row>
     <row r="40" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="84"/>
-      <c r="B40" s="136" t="str">
+      <c r="B40" s="144" t="str">
         <f>""&amp;Deflatores!B34</f>
         <v>Verificação de Erros (Com Documentação de Teste existente)</v>
       </c>
-      <c r="C40" s="136"/>
+      <c r="C40" s="144"/>
       <c r="D40" s="25" t="str">
         <f>""&amp;Deflatores!G34</f>
         <v>VEC</v>
@@ -46386,11 +45996,11 @@
     </row>
     <row r="41" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="84"/>
-      <c r="B41" s="136" t="str">
+      <c r="B41" s="144" t="str">
         <f>""&amp;Deflatores!B35</f>
         <v>Pontos de Função de Teste</v>
       </c>
-      <c r="C41" s="136"/>
+      <c r="C41" s="144"/>
       <c r="D41" s="25" t="str">
         <f>""&amp;Deflatores!G35</f>
         <v>PFT</v>
@@ -46425,11 +46035,11 @@
     </row>
     <row r="42" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="84"/>
-      <c r="B42" s="136" t="str">
+      <c r="B42" s="144" t="str">
         <f>""&amp;Deflatores!B36</f>
         <v>Componente Interno Reusável</v>
       </c>
-      <c r="C42" s="136"/>
+      <c r="C42" s="144"/>
       <c r="D42" s="25" t="str">
         <f>""&amp;Deflatores!G36</f>
         <v>CIR</v>
@@ -46464,11 +46074,11 @@
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="84"/>
-      <c r="B43" s="136" t="str">
+      <c r="B43" s="144" t="str">
         <f>""&amp;Deflatores!B37</f>
         <v/>
       </c>
-      <c r="C43" s="136"/>
+      <c r="C43" s="144"/>
       <c r="D43" s="25" t="str">
         <f>""&amp;Deflatores!G37</f>
         <v xml:space="preserve">           .</v>
@@ -46503,11 +46113,11 @@
     </row>
     <row r="44" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="84"/>
-      <c r="B44" s="136" t="str">
+      <c r="B44" s="144" t="str">
         <f>""&amp;Deflatores!B38</f>
         <v/>
       </c>
-      <c r="C44" s="136"/>
+      <c r="C44" s="144"/>
       <c r="D44" s="25" t="str">
         <f>""&amp;Deflatores!G38</f>
         <v xml:space="preserve">           .</v>
@@ -46557,11 +46167,11 @@
     </row>
     <row r="46" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="84"/>
-      <c r="B46" s="177" t="s">
+      <c r="B46" s="174" t="s">
         <v>145</v>
       </c>
-      <c r="C46" s="177"/>
-      <c r="D46" s="177"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="174"/>
       <c r="E46" s="45" t="s">
         <v>101</v>
       </c>
@@ -46582,11 +46192,11 @@
     </row>
     <row r="47" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="84"/>
-      <c r="B47" s="136" t="str">
+      <c r="B47" s="144" t="str">
         <f>""&amp;Deflatores!B42</f>
         <v>Páginas Estáticas</v>
       </c>
-      <c r="C47" s="136"/>
+      <c r="C47" s="144"/>
       <c r="D47" s="38" t="str">
         <f>""&amp;Deflatores!G42</f>
         <v>PAG</v>
@@ -46615,11 +46225,11 @@
     </row>
     <row r="48" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="84"/>
-      <c r="B48" s="136" t="str">
+      <c r="B48" s="144" t="str">
         <f>""&amp;Deflatores!B43</f>
         <v>Manutenção Cosmética (atrelada a algo não funcional)</v>
       </c>
-      <c r="C48" s="136"/>
+      <c r="C48" s="144"/>
       <c r="D48" s="38" t="str">
         <f>""&amp;Deflatores!G43</f>
         <v>COSNF</v>
@@ -46648,11 +46258,11 @@
     </row>
     <row r="49" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="84"/>
-      <c r="B49" s="136" t="str">
+      <c r="B49" s="144" t="str">
         <f>""&amp;Deflatores!B44</f>
         <v>Dados de Código</v>
       </c>
-      <c r="C49" s="136"/>
+      <c r="C49" s="144"/>
       <c r="D49" s="38" t="str">
         <f>""&amp;Deflatores!G44</f>
         <v>DC</v>
@@ -46681,11 +46291,11 @@
     </row>
     <row r="50" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="84"/>
-      <c r="B50" s="136" t="str">
+      <c r="B50" s="144" t="str">
         <f>""&amp;Deflatores!B45</f>
         <v/>
       </c>
-      <c r="C50" s="136"/>
+      <c r="C50" s="144"/>
       <c r="D50" s="38" t="str">
         <f>""&amp;Deflatores!G45</f>
         <v xml:space="preserve">           .</v>
@@ -46714,11 +46324,11 @@
     </row>
     <row r="51" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="84"/>
-      <c r="B51" s="136" t="str">
+      <c r="B51" s="144" t="str">
         <f>""&amp;Deflatores!B46</f>
         <v/>
       </c>
-      <c r="C51" s="136"/>
+      <c r="C51" s="144"/>
       <c r="D51" s="38" t="str">
         <f>""&amp;Deflatores!G46</f>
         <v xml:space="preserve">           .</v>
@@ -46747,11 +46357,11 @@
     </row>
     <row r="52" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="84"/>
-      <c r="B52" s="136" t="str">
+      <c r="B52" s="144" t="str">
         <f>""&amp;Deflatores!B47</f>
         <v/>
       </c>
-      <c r="C52" s="136"/>
+      <c r="C52" s="144"/>
       <c r="D52" s="38" t="str">
         <f>""&amp;Deflatores!G47</f>
         <v xml:space="preserve">           .</v>
@@ -46780,11 +46390,11 @@
     </row>
     <row r="53" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A53" s="84"/>
-      <c r="B53" s="136" t="str">
+      <c r="B53" s="144" t="str">
         <f>""&amp;Deflatores!B48</f>
         <v/>
       </c>
-      <c r="C53" s="136"/>
+      <c r="C53" s="144"/>
       <c r="D53" s="38" t="str">
         <f>""&amp;Deflatores!G48</f>
         <v xml:space="preserve">           .</v>
@@ -46813,11 +46423,11 @@
     </row>
     <row r="54" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A54" s="84"/>
-      <c r="B54" s="136" t="str">
+      <c r="B54" s="144" t="str">
         <f>""&amp;Deflatores!B49</f>
         <v/>
       </c>
-      <c r="C54" s="136"/>
+      <c r="C54" s="144"/>
       <c r="D54" s="38" t="str">
         <f>""&amp;Deflatores!G49</f>
         <v xml:space="preserve">           .</v>
@@ -46846,11 +46456,11 @@
     </row>
     <row r="55" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A55" s="84"/>
-      <c r="B55" s="136" t="str">
+      <c r="B55" s="144" t="str">
         <f>""&amp;Deflatores!B50</f>
         <v/>
       </c>
-      <c r="C55" s="136"/>
+      <c r="C55" s="144"/>
       <c r="D55" s="38" t="str">
         <f>""&amp;Deflatores!G50</f>
         <v xml:space="preserve">           .</v>
@@ -46879,11 +46489,11 @@
     </row>
     <row r="56" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A56" s="84"/>
-      <c r="B56" s="136" t="str">
+      <c r="B56" s="144" t="str">
         <f>""&amp;Deflatores!B51</f>
         <v/>
       </c>
-      <c r="C56" s="136"/>
+      <c r="C56" s="144"/>
       <c r="D56" s="38" t="str">
         <f>""&amp;Deflatores!G51</f>
         <v xml:space="preserve">           .</v>
@@ -46912,11 +46522,11 @@
     </row>
     <row r="57" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A57" s="84"/>
-      <c r="B57" s="136" t="str">
+      <c r="B57" s="144" t="str">
         <f>""&amp;Deflatores!B52</f>
         <v/>
       </c>
-      <c r="C57" s="136"/>
+      <c r="C57" s="144"/>
       <c r="D57" s="38" t="str">
         <f>""&amp;Deflatores!G52</f>
         <v xml:space="preserve">           .</v>
@@ -46945,11 +46555,11 @@
     </row>
     <row r="58" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A58" s="84"/>
-      <c r="B58" s="136" t="str">
+      <c r="B58" s="144" t="str">
         <f>""&amp;Deflatores!B53</f>
         <v/>
       </c>
-      <c r="C58" s="136"/>
+      <c r="C58" s="144"/>
       <c r="D58" s="38" t="str">
         <f>""&amp;Deflatores!G53</f>
         <v xml:space="preserve">           .</v>
@@ -46978,11 +46588,11 @@
     </row>
     <row r="59" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A59" s="84"/>
-      <c r="B59" s="136" t="str">
+      <c r="B59" s="144" t="str">
         <f>""&amp;Deflatores!B54</f>
         <v/>
       </c>
-      <c r="C59" s="136"/>
+      <c r="C59" s="144"/>
       <c r="D59" s="38" t="str">
         <f>""&amp;Deflatores!G54</f>
         <v xml:space="preserve">           .</v>
@@ -47011,11 +46621,11 @@
     </row>
     <row r="60" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A60" s="84"/>
-      <c r="B60" s="136" t="str">
+      <c r="B60" s="144" t="str">
         <f>""&amp;Deflatores!B55</f>
         <v/>
       </c>
-      <c r="C60" s="136"/>
+      <c r="C60" s="144"/>
       <c r="D60" s="38" t="str">
         <f>""&amp;Deflatores!G55</f>
         <v xml:space="preserve">           .</v>
@@ -47044,11 +46654,11 @@
     </row>
     <row r="61" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A61" s="84"/>
-      <c r="B61" s="136" t="str">
+      <c r="B61" s="144" t="str">
         <f>""&amp;Deflatores!B56</f>
         <v/>
       </c>
-      <c r="C61" s="136"/>
+      <c r="C61" s="144"/>
       <c r="D61" s="38" t="str">
         <f>""&amp;Deflatores!G56</f>
         <v xml:space="preserve">           .</v>
@@ -47077,11 +46687,11 @@
     </row>
     <row r="62" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A62" s="84"/>
-      <c r="B62" s="136" t="str">
+      <c r="B62" s="144" t="str">
         <f>""&amp;Deflatores!B57</f>
         <v/>
       </c>
-      <c r="C62" s="136"/>
+      <c r="C62" s="144"/>
       <c r="D62" s="38" t="str">
         <f>""&amp;Deflatores!G57</f>
         <v xml:space="preserve">           .</v>
@@ -47110,11 +46720,11 @@
     </row>
     <row r="63" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A63" s="84"/>
-      <c r="B63" s="136" t="str">
+      <c r="B63" s="144" t="str">
         <f>""&amp;Deflatores!B58</f>
         <v/>
       </c>
-      <c r="C63" s="136"/>
+      <c r="C63" s="144"/>
       <c r="D63" s="38" t="str">
         <f>""&amp;Deflatores!G58</f>
         <v xml:space="preserve">           .</v>
@@ -47143,11 +46753,11 @@
     </row>
     <row r="64" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A64" s="84"/>
-      <c r="B64" s="136" t="str">
+      <c r="B64" s="144" t="str">
         <f>""&amp;Deflatores!B59</f>
         <v/>
       </c>
-      <c r="C64" s="136"/>
+      <c r="C64" s="144"/>
       <c r="D64" s="38" t="str">
         <f>""&amp;Deflatores!G59</f>
         <v xml:space="preserve">           .</v>
@@ -47176,11 +46786,11 @@
     </row>
     <row r="65" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A65" s="84"/>
-      <c r="B65" s="136" t="str">
+      <c r="B65" s="144" t="str">
         <f>""&amp;Deflatores!B60</f>
         <v/>
       </c>
-      <c r="C65" s="136"/>
+      <c r="C65" s="144"/>
       <c r="D65" s="38" t="str">
         <f>""&amp;Deflatores!G60</f>
         <v xml:space="preserve">           .</v>
@@ -47209,11 +46819,11 @@
     </row>
     <row r="66" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A66" s="84"/>
-      <c r="B66" s="136" t="str">
+      <c r="B66" s="144" t="str">
         <f>""&amp;Deflatores!B61</f>
         <v/>
       </c>
-      <c r="C66" s="136"/>
+      <c r="C66" s="144"/>
       <c r="D66" s="38" t="str">
         <f>""&amp;Deflatores!G61</f>
         <v xml:space="preserve">           .</v>
@@ -47242,11 +46852,11 @@
     </row>
     <row r="67" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A67" s="84"/>
-      <c r="B67" s="136" t="str">
+      <c r="B67" s="144" t="str">
         <f>""&amp;Deflatores!B62</f>
         <v/>
       </c>
-      <c r="C67" s="136"/>
+      <c r="C67" s="144"/>
       <c r="D67" s="38" t="str">
         <f>""&amp;Deflatores!G62</f>
         <v xml:space="preserve">           .</v>
@@ -47275,11 +46885,11 @@
     </row>
     <row r="68" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A68" s="84"/>
-      <c r="B68" s="136" t="str">
+      <c r="B68" s="144" t="str">
         <f>""&amp;Deflatores!B63</f>
         <v/>
       </c>
-      <c r="C68" s="136"/>
+      <c r="C68" s="144"/>
       <c r="D68" s="38" t="str">
         <f>""&amp;Deflatores!G63</f>
         <v xml:space="preserve">           .</v>
@@ -47308,11 +46918,11 @@
     </row>
     <row r="69" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A69" s="84"/>
-      <c r="B69" s="136" t="str">
+      <c r="B69" s="144" t="str">
         <f>""&amp;Deflatores!B64</f>
         <v/>
       </c>
-      <c r="C69" s="136"/>
+      <c r="C69" s="144"/>
       <c r="D69" s="38" t="str">
         <f>""&amp;Deflatores!G64</f>
         <v xml:space="preserve">           .</v>
@@ -47357,58 +46967,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="68">
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="A1:M3"/>
@@ -47425,6 +46983,58 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.023611111111111" bottom="1.023611111111111" header="0.51180555555555551" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="47" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
